--- a/output/contacts.xlsx
+++ b/output/contacts.xlsx
@@ -344,7 +344,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>30308.0</v>
+        <v>57007.0</v>
       </c>
       <c r="B1" t="n">
         <v>0.0</v>
@@ -359,12 +359,12 @@
         <v>0.0</v>
       </c>
       <c r="F1" t="n">
-        <v>78604.0</v>
+        <v>170411.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31016.0</v>
+        <v>57479.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -379,12 +379,12 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>81032.0</v>
+        <v>181728.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31197.0</v>
+        <v>56160.0</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -399,12 +399,12 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>78570.0</v>
+        <v>191680.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>31156.0</v>
+        <v>54049.0</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -419,12 +419,12 @@
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>76969.0</v>
+        <v>200956.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30650.0</v>
+        <v>52016.0</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -439,12 +439,12 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>76895.0</v>
+        <v>209078.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>46676.0</v>
+        <v>97638.0</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43400.0</v>
+        <v>87500.0</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26897.0</v>
+        <v>39364.0</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -499,12 +499,12 @@
         <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>73014.0</v>
+        <v>209660.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26670.0</v>
+        <v>38408.0</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -519,12 +519,12 @@
         <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>77622.0</v>
+        <v>220009.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26298.0</v>
+        <v>37562.0</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -539,12 +539,12 @@
         <v>0.0</v>
       </c>
       <c r="F10" t="n">
-        <v>78862.0</v>
+        <v>231822.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26050.0</v>
+        <v>37525.0</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -559,12 +559,12 @@
         <v>0.0</v>
       </c>
       <c r="F11" t="n">
-        <v>77756.0</v>
+        <v>243444.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>25980.0</v>
+        <v>37883.0</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -579,12 +579,12 @@
         <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>77436.0</v>
+        <v>254094.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>41082.0</v>
+        <v>71508.0</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>39011.0</v>
+        <v>69192.0</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>24456.0</v>
+        <v>31921.0</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -639,12 +639,12 @@
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>67305.0</v>
+        <v>238537.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>24944.0</v>
+        <v>31989.0</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -659,12 +659,12 @@
         <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>71469.0</v>
+        <v>240239.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>25199.0</v>
+        <v>32044.0</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -679,12 +679,12 @@
         <v>0.0</v>
       </c>
       <c r="F17" t="n">
-        <v>70842.0</v>
+        <v>241852.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>25259.0</v>
+        <v>32497.0</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -699,12 +699,12 @@
         <v>0.0</v>
       </c>
       <c r="F18" t="n">
-        <v>69899.0</v>
+        <v>242704.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>25421.0</v>
+        <v>33346.0</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -719,12 +719,12 @@
         <v>0.0</v>
       </c>
       <c r="F19" t="n">
-        <v>71620.0</v>
+        <v>244098.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>39876.0</v>
+        <v>66900.0</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>38409.0</v>
+        <v>61835.0</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>24153.0</v>
+        <v>28528.0</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -779,12 +779,12 @@
         <v>0.0</v>
       </c>
       <c r="F22" t="n">
-        <v>66971.0</v>
+        <v>214527.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24465.0</v>
+        <v>29120.0</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -799,12 +799,12 @@
         <v>0.0</v>
       </c>
       <c r="F23" t="n">
-        <v>70878.0</v>
+        <v>215188.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>24706.0</v>
+        <v>29390.0</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -819,12 +819,12 @@
         <v>0.0</v>
       </c>
       <c r="F24" t="n">
-        <v>71148.0</v>
+        <v>215970.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24924.0</v>
+        <v>30047.0</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -839,12 +839,12 @@
         <v>0.0</v>
       </c>
       <c r="F25" t="n">
-        <v>71828.0</v>
+        <v>217956.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24974.0</v>
+        <v>30793.0</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -859,12 +859,12 @@
         <v>0.0</v>
       </c>
       <c r="F26" t="n">
-        <v>69982.0</v>
+        <v>221206.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>38751.0</v>
+        <v>62183.0</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>36980.0</v>
+        <v>57271.0</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>23463.0</v>
+        <v>26535.0</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -919,12 +919,12 @@
         <v>0.0</v>
       </c>
       <c r="F29" t="n">
-        <v>65184.0</v>
+        <v>197522.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>23922.0</v>
+        <v>27159.0</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -939,12 +939,12 @@
         <v>0.0</v>
       </c>
       <c r="F30" t="n">
-        <v>69397.0</v>
+        <v>199351.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>23927.0</v>
+        <v>27506.0</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -959,12 +959,12 @@
         <v>0.0</v>
       </c>
       <c r="F31" t="n">
-        <v>69885.0</v>
+        <v>200508.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>23897.0</v>
+        <v>28140.0</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -979,44 +979,44 @@
         <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>70761.0</v>
+        <v>200881.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>21305.0</v>
+        <v>29300.0</v>
       </c>
       <c r="B33" t="n">
-        <v>3118.0</v>
+        <v>8384.0</v>
       </c>
       <c r="C33" t="n">
-        <v>5449.0</v>
+        <v>21775.0</v>
       </c>
       <c r="D33" t="n">
-        <v>409.0</v>
+        <v>0.0</v>
       </c>
       <c r="E33" t="n">
-        <v>4863.0</v>
+        <v>4571.0</v>
       </c>
       <c r="F33" t="n">
-        <v>69360.0</v>
+        <v>203491.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>34723.0</v>
+        <v>31503.0</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
       </c>
       <c r="C34" t="n">
-        <v>6452.0</v>
+        <v>21515.0</v>
       </c>
       <c r="D34" t="n">
-        <v>390.0</v>
+        <v>0.0</v>
       </c>
       <c r="E34" t="n">
-        <v>4666.0</v>
+        <v>4477.0</v>
       </c>
       <c r="F34" t="n">
         <v>0.0</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>40021.0</v>
+        <v>59379.0</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -1044,119 +1044,119 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>22316.0</v>
+        <v>28165.0</v>
       </c>
       <c r="B36" t="n">
-        <v>3063.0</v>
+        <v>10749.0</v>
       </c>
       <c r="C36" t="n">
-        <v>6869.0</v>
+        <v>29213.0</v>
       </c>
       <c r="D36" t="n">
-        <v>404.0</v>
+        <v>0.0</v>
       </c>
       <c r="E36" t="n">
-        <v>4629.0</v>
+        <v>4909.0</v>
       </c>
       <c r="F36" t="n">
-        <v>65318.0</v>
+        <v>180024.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>24026.0</v>
+        <v>30961.0</v>
       </c>
       <c r="B37" t="n">
-        <v>3973.0</v>
+        <v>12990.0</v>
       </c>
       <c r="C37" t="n">
-        <v>8006.0</v>
+        <v>34762.0</v>
       </c>
       <c r="D37" t="n">
-        <v>388.0</v>
+        <v>0.0</v>
       </c>
       <c r="E37" t="n">
-        <v>4784.0</v>
+        <v>4991.0</v>
       </c>
       <c r="F37" t="n">
-        <v>70349.0</v>
+        <v>183586.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>25686.0</v>
+        <v>33221.0</v>
       </c>
       <c r="B38" t="n">
-        <v>4499.0</v>
+        <v>14035.0</v>
       </c>
       <c r="C38" t="n">
-        <v>8607.0</v>
+        <v>39815.0</v>
       </c>
       <c r="D38" t="n">
-        <v>432.0</v>
+        <v>0.0</v>
       </c>
       <c r="E38" t="n">
-        <v>4607.0</v>
+        <v>4977.0</v>
       </c>
       <c r="F38" t="n">
-        <v>73003.0</v>
+        <v>186977.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27224.0</v>
+        <v>36233.0</v>
       </c>
       <c r="B39" t="n">
-        <v>4641.0</v>
+        <v>15460.0</v>
       </c>
       <c r="C39" t="n">
-        <v>8860.0</v>
+        <v>44530.0</v>
       </c>
       <c r="D39" t="n">
-        <v>506.0</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n">
-        <v>4658.0</v>
+        <v>4914.0</v>
       </c>
       <c r="F39" t="n">
-        <v>75716.0</v>
+        <v>191059.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>28944.0</v>
+        <v>39788.0</v>
       </c>
       <c r="B40" t="n">
-        <v>4480.0</v>
+        <v>17043.0</v>
       </c>
       <c r="C40" t="n">
-        <v>9537.0</v>
+        <v>49219.0</v>
       </c>
       <c r="D40" t="n">
-        <v>522.0</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n">
-        <v>4613.0</v>
+        <v>5058.0</v>
       </c>
       <c r="F40" t="n">
-        <v>77236.0</v>
+        <v>195807.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45689.0</v>
+        <v>44097.0</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
       </c>
       <c r="C41" t="n">
-        <v>9376.0</v>
+        <v>46143.0</v>
       </c>
       <c r="D41" t="n">
-        <v>550.0</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n">
-        <v>4804.0</v>
+        <v>5199.0</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>53506.0</v>
+        <v>85735.0</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -1184,119 +1184,119 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>29620.0</v>
+        <v>41793.0</v>
       </c>
       <c r="B43" t="n">
-        <v>4286.0</v>
+        <v>18072.0</v>
       </c>
       <c r="C43" t="n">
-        <v>9678.0</v>
+        <v>58743.0</v>
       </c>
       <c r="D43" t="n">
-        <v>569.0</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>5236.0</v>
+        <v>5768.0</v>
       </c>
       <c r="F43" t="n">
-        <v>83464.0</v>
+        <v>189344.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>31804.0</v>
+        <v>46557.0</v>
       </c>
       <c r="B44" t="n">
-        <v>5299.0</v>
+        <v>20376.0</v>
       </c>
       <c r="C44" t="n">
-        <v>11240.0</v>
+        <v>66547.0</v>
       </c>
       <c r="D44" t="n">
-        <v>662.0</v>
+        <v>0.0</v>
       </c>
       <c r="E44" t="n">
-        <v>5251.0</v>
+        <v>5829.0</v>
       </c>
       <c r="F44" t="n">
-        <v>93412.0</v>
+        <v>197366.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>33298.0</v>
+        <v>50773.0</v>
       </c>
       <c r="B45" t="n">
-        <v>5416.0</v>
+        <v>22870.0</v>
       </c>
       <c r="C45" t="n">
-        <v>11340.0</v>
+        <v>72293.0</v>
       </c>
       <c r="D45" t="n">
-        <v>781.0</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>5482.0</v>
+        <v>6097.0</v>
       </c>
       <c r="F45" t="n">
-        <v>96269.0</v>
+        <v>205700.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>35047.0</v>
+        <v>55768.0</v>
       </c>
       <c r="B46" t="n">
-        <v>5210.0</v>
+        <v>24850.0</v>
       </c>
       <c r="C46" t="n">
-        <v>12164.0</v>
+        <v>78536.0</v>
       </c>
       <c r="D46" t="n">
-        <v>905.0</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>5436.0</v>
+        <v>6278.0</v>
       </c>
       <c r="F46" t="n">
-        <v>99240.0</v>
+        <v>213963.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>37070.0</v>
+        <v>61420.0</v>
       </c>
       <c r="B47" t="n">
-        <v>5329.0</v>
+        <v>26759.0</v>
       </c>
       <c r="C47" t="n">
-        <v>12570.0</v>
+        <v>84089.0</v>
       </c>
       <c r="D47" t="n">
-        <v>835.0</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>5698.0</v>
+        <v>6600.0</v>
       </c>
       <c r="F47" t="n">
-        <v>103771.0</v>
+        <v>228242.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>57604.0</v>
+        <v>67392.0</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>12187.0</v>
+        <v>76794.0</v>
       </c>
       <c r="D48" t="n">
-        <v>803.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>6128.0</v>
+        <v>6819.0</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>67185.0</v>
+        <v>132088.0</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -1324,119 +1324,119 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>36964.0</v>
+        <v>64857.0</v>
       </c>
       <c r="B50" t="n">
-        <v>5310.0</v>
+        <v>28130.0</v>
       </c>
       <c r="C50" t="n">
-        <v>12258.0</v>
+        <v>93544.0</v>
       </c>
       <c r="D50" t="n">
-        <v>781.0</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n">
-        <v>6533.0</v>
+        <v>8387.0</v>
       </c>
       <c r="F50" t="n">
-        <v>109715.0</v>
+        <v>245920.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>39030.0</v>
+        <v>71629.0</v>
       </c>
       <c r="B51" t="n">
-        <v>6251.0</v>
+        <v>32222.0</v>
       </c>
       <c r="C51" t="n">
-        <v>13994.0</v>
+        <v>102061.0</v>
       </c>
       <c r="D51" t="n">
-        <v>807.0</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n">
-        <v>6586.0</v>
+        <v>8883.0</v>
       </c>
       <c r="F51" t="n">
-        <v>119533.0</v>
+        <v>264409.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>40330.0</v>
+        <v>77580.0</v>
       </c>
       <c r="B52" t="n">
-        <v>6879.0</v>
+        <v>34507.0</v>
       </c>
       <c r="C52" t="n">
-        <v>14989.0</v>
+        <v>110097.0</v>
       </c>
       <c r="D52" t="n">
-        <v>843.0</v>
+        <v>0.0</v>
       </c>
       <c r="E52" t="n">
-        <v>6399.0</v>
+        <v>9124.0</v>
       </c>
       <c r="F52" t="n">
-        <v>123480.0</v>
+        <v>281068.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>42966.0</v>
+        <v>84095.0</v>
       </c>
       <c r="B53" t="n">
-        <v>6995.0</v>
+        <v>37299.0</v>
       </c>
       <c r="C53" t="n">
-        <v>16211.0</v>
+        <v>119121.0</v>
       </c>
       <c r="D53" t="n">
-        <v>735.0</v>
+        <v>0.0</v>
       </c>
       <c r="E53" t="n">
-        <v>6419.0</v>
+        <v>9500.0</v>
       </c>
       <c r="F53" t="n">
-        <v>125930.0</v>
+        <v>296828.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>45839.0</v>
+        <v>92031.0</v>
       </c>
       <c r="B54" t="n">
-        <v>6857.0</v>
+        <v>40317.0</v>
       </c>
       <c r="C54" t="n">
-        <v>16928.0</v>
+        <v>126386.0</v>
       </c>
       <c r="D54" t="n">
-        <v>821.0</v>
+        <v>0.0</v>
       </c>
       <c r="E54" t="n">
-        <v>6550.0</v>
+        <v>9785.0</v>
       </c>
       <c r="F54" t="n">
-        <v>131642.0</v>
+        <v>316884.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>71782.0</v>
+        <v>100116.0</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
       </c>
       <c r="C55" t="n">
-        <v>15943.0</v>
+        <v>114302.0</v>
       </c>
       <c r="D55" t="n">
-        <v>746.0</v>
+        <v>0.0</v>
       </c>
       <c r="E55" t="n">
-        <v>6572.0</v>
+        <v>10332.0</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>83417.0</v>
+        <v>194644.0</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -1464,119 +1464,119 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>46035.0</v>
+        <v>96218.0</v>
       </c>
       <c r="B57" t="n">
-        <v>6784.0</v>
+        <v>40414.0</v>
       </c>
       <c r="C57" t="n">
-        <v>16742.0</v>
+        <v>135809.0</v>
       </c>
       <c r="D57" t="n">
-        <v>894.0</v>
+        <v>0.0</v>
       </c>
       <c r="E57" t="n">
-        <v>6849.0</v>
+        <v>12369.0</v>
       </c>
       <c r="F57" t="n">
-        <v>136129.0</v>
+        <v>346340.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>48647.0</v>
+        <v>104900.0</v>
       </c>
       <c r="B58" t="n">
-        <v>8119.0</v>
+        <v>45120.0</v>
       </c>
       <c r="C58" t="n">
-        <v>19210.0</v>
+        <v>146414.0</v>
       </c>
       <c r="D58" t="n">
-        <v>855.0</v>
+        <v>0.0</v>
       </c>
       <c r="E58" t="n">
-        <v>7067.0</v>
+        <v>12737.0</v>
       </c>
       <c r="F58" t="n">
-        <v>145625.0</v>
+        <v>370506.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>50345.0</v>
+        <v>112554.0</v>
       </c>
       <c r="B59" t="n">
-        <v>8475.0</v>
+        <v>48734.0</v>
       </c>
       <c r="C59" t="n">
-        <v>19859.0</v>
+        <v>155335.0</v>
       </c>
       <c r="D59" t="n">
-        <v>809.0</v>
+        <v>0.0</v>
       </c>
       <c r="E59" t="n">
-        <v>6938.0</v>
+        <v>13094.0</v>
       </c>
       <c r="F59" t="n">
-        <v>148591.0</v>
+        <v>392718.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>52938.0</v>
+        <v>110693.0</v>
       </c>
       <c r="B60" t="n">
-        <v>8483.0</v>
+        <v>51642.0</v>
       </c>
       <c r="C60" t="n">
-        <v>20533.0</v>
+        <v>163485.0</v>
       </c>
       <c r="D60" t="n">
-        <v>893.0</v>
+        <v>0.0</v>
       </c>
       <c r="E60" t="n">
-        <v>7207.0</v>
+        <v>13459.0</v>
       </c>
       <c r="F60" t="n">
-        <v>151015.0</v>
+        <v>416152.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>58668.0</v>
+        <v>130298.0</v>
       </c>
       <c r="B61" t="n">
-        <v>10341.0</v>
+        <v>53674.0</v>
       </c>
       <c r="C61" t="n">
-        <v>24204.0</v>
+        <v>171389.0</v>
       </c>
       <c r="D61" t="n">
-        <v>983.0</v>
+        <v>0.0</v>
       </c>
       <c r="E61" t="n">
-        <v>7491.0</v>
+        <v>13839.0</v>
       </c>
       <c r="F61" t="n">
-        <v>156481.0</v>
+        <v>444854.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>89722.0</v>
+        <v>141114.0</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
       </c>
       <c r="C62" t="n">
-        <v>22997.0</v>
+        <v>153742.0</v>
       </c>
       <c r="D62" t="n">
-        <v>998.0</v>
+        <v>0.0</v>
       </c>
       <c r="E62" t="n">
-        <v>8032.0</v>
+        <v>14344.0</v>
       </c>
       <c r="F62" t="n">
         <v>0.0</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>105603.0</v>
+        <v>274099.0</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
@@ -1604,119 +1604,119 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>57762.0</v>
+        <v>132466.0</v>
       </c>
       <c r="B64" t="n">
-        <v>10617.0</v>
+        <v>54821.0</v>
       </c>
       <c r="C64" t="n">
-        <v>23615.0</v>
+        <v>177533.0</v>
       </c>
       <c r="D64" t="n">
-        <v>972.0</v>
+        <v>0.0</v>
       </c>
       <c r="E64" t="n">
-        <v>9049.0</v>
+        <v>17283.0</v>
       </c>
       <c r="F64" t="n">
-        <v>162419.0</v>
+        <v>478438.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>61718.0</v>
+        <v>143601.0</v>
       </c>
       <c r="B65" t="n">
-        <v>13108.0</v>
+        <v>59931.0</v>
       </c>
       <c r="C65" t="n">
-        <v>28897.0</v>
+        <v>188430.0</v>
       </c>
       <c r="D65" t="n">
-        <v>1216.0</v>
+        <v>0.0</v>
       </c>
       <c r="E65" t="n">
-        <v>9048.0</v>
+        <v>18155.0</v>
       </c>
       <c r="F65" t="n">
-        <v>172821.0</v>
+        <v>508719.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>64755.0</v>
+        <v>150803.0</v>
       </c>
       <c r="B66" t="n">
-        <v>12951.0</v>
+        <v>64069.0</v>
       </c>
       <c r="C66" t="n">
-        <v>28302.0</v>
+        <v>197591.0</v>
       </c>
       <c r="D66" t="n">
-        <v>1102.0</v>
+        <v>0.0</v>
       </c>
       <c r="E66" t="n">
-        <v>8660.0</v>
+        <v>18731.0</v>
       </c>
       <c r="F66" t="n">
-        <v>175887.0</v>
+        <v>535373.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>68058.0</v>
+        <v>161974.0</v>
       </c>
       <c r="B67" t="n">
-        <v>13774.0</v>
+        <v>68724.0</v>
       </c>
       <c r="C67" t="n">
-        <v>30043.0</v>
+        <v>206782.0</v>
       </c>
       <c r="D67" t="n">
-        <v>1174.0</v>
+        <v>0.0</v>
       </c>
       <c r="E67" t="n">
-        <v>9478.0</v>
+        <v>19408.0</v>
       </c>
       <c r="F67" t="n">
-        <v>180792.0</v>
+        <v>563919.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>72163.0</v>
+        <v>171886.0</v>
       </c>
       <c r="B68" t="n">
-        <v>13573.0</v>
+        <v>72855.0</v>
       </c>
       <c r="C68" t="n">
-        <v>31104.0</v>
+        <v>215471.0</v>
       </c>
       <c r="D68" t="n">
-        <v>1098.0</v>
+        <v>0.0</v>
       </c>
       <c r="E68" t="n">
-        <v>9386.0</v>
+        <v>20291.0</v>
       </c>
       <c r="F68" t="n">
-        <v>187637.0</v>
+        <v>593805.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111810.0</v>
+        <v>185485.0</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
       </c>
       <c r="C69" t="n">
-        <v>29466.0</v>
+        <v>191503.0</v>
       </c>
       <c r="D69" t="n">
-        <v>1188.0</v>
+        <v>0.0</v>
       </c>
       <c r="E69" t="n">
-        <v>10022.0</v>
+        <v>21094.0</v>
       </c>
       <c r="F69" t="n">
         <v>0.0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131865.0</v>
+        <v>355380.0</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
@@ -1744,119 +1744,119 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>71995.0</v>
+        <v>172313.0</v>
       </c>
       <c r="B71" t="n">
-        <v>13455.0</v>
+        <v>71301.0</v>
       </c>
       <c r="C71" t="n">
-        <v>30416.0</v>
+        <v>217899.0</v>
       </c>
       <c r="D71" t="n">
-        <v>1389.0</v>
+        <v>0.0</v>
       </c>
       <c r="E71" t="n">
-        <v>11507.0</v>
+        <v>24191.0</v>
       </c>
       <c r="F71" t="n">
-        <v>199984.0</v>
+        <v>635163.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>76771.0</v>
+        <v>183648.0</v>
       </c>
       <c r="B72" t="n">
-        <v>16609.0</v>
+        <v>77631.0</v>
       </c>
       <c r="C72" t="n">
-        <v>35969.0</v>
+        <v>228390.0</v>
       </c>
       <c r="D72" t="n">
-        <v>1354.0</v>
+        <v>0.0</v>
       </c>
       <c r="E72" t="n">
-        <v>11408.0</v>
+        <v>24900.0</v>
       </c>
       <c r="F72" t="n">
-        <v>214092.0</v>
+        <v>665148.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>79813.0</v>
+        <v>195820.0</v>
       </c>
       <c r="B73" t="n">
-        <v>17044.0</v>
+        <v>82107.0</v>
       </c>
       <c r="C73" t="n">
-        <v>36076.0</v>
+        <v>237974.0</v>
       </c>
       <c r="D73" t="n">
-        <v>1488.0</v>
+        <v>0.0</v>
       </c>
       <c r="E73" t="n">
-        <v>11254.0</v>
+        <v>25948.0</v>
       </c>
       <c r="F73" t="n">
-        <v>218720.0</v>
+        <v>694441.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>81877.0</v>
+        <v>203647.0</v>
       </c>
       <c r="B74" t="n">
-        <v>17230.0</v>
+        <v>85494.0</v>
       </c>
       <c r="C74" t="n">
-        <v>37686.0</v>
+        <v>242700.0</v>
       </c>
       <c r="D74" t="n">
-        <v>1462.0</v>
+        <v>0.0</v>
       </c>
       <c r="E74" t="n">
-        <v>11862.0</v>
+        <v>26550.0</v>
       </c>
       <c r="F74" t="n">
-        <v>224921.0</v>
+        <v>723808.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>90552.0</v>
+        <v>218141.0</v>
       </c>
       <c r="B75" t="n">
-        <v>16757.0</v>
+        <v>87965.0</v>
       </c>
       <c r="C75" t="n">
-        <v>38599.0</v>
+        <v>248375.0</v>
       </c>
       <c r="D75" t="n">
-        <v>1537.0</v>
+        <v>0.0</v>
       </c>
       <c r="E75" t="n">
-        <v>12092.0</v>
+        <v>27131.0</v>
       </c>
       <c r="F75" t="n">
-        <v>234821.0</v>
+        <v>757201.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>138605.0</v>
+        <v>230539.0</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
       </c>
       <c r="C76" t="n">
-        <v>36362.0</v>
+        <v>216480.0</v>
       </c>
       <c r="D76" t="n">
-        <v>1696.0</v>
+        <v>0.0</v>
       </c>
       <c r="E76" t="n">
-        <v>12800.0</v>
+        <v>28097.0</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>162320.0</v>
+        <v>435906.0</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
@@ -1884,119 +1884,119 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>87901.0</v>
+        <v>209541.0</v>
       </c>
       <c r="B78" t="n">
-        <v>16458.0</v>
+        <v>82578.0</v>
       </c>
       <c r="C78" t="n">
-        <v>36335.0</v>
+        <v>245477.0</v>
       </c>
       <c r="D78" t="n">
-        <v>1679.0</v>
+        <v>0.0</v>
       </c>
       <c r="E78" t="n">
-        <v>13987.0</v>
+        <v>31094.0</v>
       </c>
       <c r="F78" t="n">
-        <v>246432.0</v>
+        <v>784910.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>93153.0</v>
+        <v>223000.0</v>
       </c>
       <c r="B79" t="n">
-        <v>19591.0</v>
+        <v>89973.0</v>
       </c>
       <c r="C79" t="n">
-        <v>42135.0</v>
+        <v>256871.0</v>
       </c>
       <c r="D79" t="n">
-        <v>1961.0</v>
+        <v>0.0</v>
       </c>
       <c r="E79" t="n">
-        <v>14215.0</v>
+        <v>31833.0</v>
       </c>
       <c r="F79" t="n">
-        <v>263053.0</v>
+        <v>821107.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>96498.0</v>
+        <v>228059.0</v>
       </c>
       <c r="B80" t="n">
-        <v>19809.0</v>
+        <v>93576.0</v>
       </c>
       <c r="C80" t="n">
-        <v>42781.0</v>
+        <v>266996.0</v>
       </c>
       <c r="D80" t="n">
-        <v>2014.0</v>
+        <v>0.0</v>
       </c>
       <c r="E80" t="n">
-        <v>14426.0</v>
+        <v>32388.0</v>
       </c>
       <c r="F80" t="n">
-        <v>267862.0</v>
+        <v>853708.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>100915.0</v>
+        <v>239705.0</v>
       </c>
       <c r="B81" t="n">
-        <v>19542.0</v>
+        <v>97842.0</v>
       </c>
       <c r="C81" t="n">
-        <v>43601.0</v>
+        <v>273800.0</v>
       </c>
       <c r="D81" t="n">
-        <v>2050.0</v>
+        <v>0.0</v>
       </c>
       <c r="E81" t="n">
-        <v>14535.0</v>
+        <v>33012.0</v>
       </c>
       <c r="F81" t="n">
-        <v>275088.0</v>
+        <v>884118.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>107244.0</v>
+        <v>254049.0</v>
       </c>
       <c r="B82" t="n">
-        <v>19675.0</v>
+        <v>99595.0</v>
       </c>
       <c r="C82" t="n">
-        <v>44729.0</v>
+        <v>280188.0</v>
       </c>
       <c r="D82" t="n">
-        <v>1848.0</v>
+        <v>0.0</v>
       </c>
       <c r="E82" t="n">
-        <v>14944.0</v>
+        <v>33698.0</v>
       </c>
       <c r="F82" t="n">
-        <v>284411.0</v>
+        <v>918131.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>163384.0</v>
+        <v>260867.0</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>41212.0</v>
+        <v>242940.0</v>
       </c>
       <c r="D83" t="n">
-        <v>2000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E83" t="n">
-        <v>15712.0</v>
+        <v>34277.0</v>
       </c>
       <c r="F83" t="n">
         <v>0.0</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>190074.0</v>
+        <v>503700.0</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
@@ -2024,119 +2024,119 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>102763.0</v>
+        <v>238480.0</v>
       </c>
       <c r="B85" t="n">
-        <v>18755.0</v>
+        <v>91393.0</v>
       </c>
       <c r="C85" t="n">
-        <v>41580.0</v>
+        <v>271537.0</v>
       </c>
       <c r="D85" t="n">
-        <v>1965.0</v>
+        <v>0.0</v>
       </c>
       <c r="E85" t="n">
-        <v>17034.0</v>
+        <v>39124.0</v>
       </c>
       <c r="F85" t="n">
-        <v>292524.0</v>
+        <v>920444.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>108447.0</v>
+        <v>251360.0</v>
       </c>
       <c r="B86" t="n">
-        <v>22603.0</v>
+        <v>99080.0</v>
       </c>
       <c r="C86" t="n">
-        <v>48746.0</v>
+        <v>281627.0</v>
       </c>
       <c r="D86" t="n">
-        <v>1991.0</v>
+        <v>0.0</v>
       </c>
       <c r="E86" t="n">
-        <v>16963.0</v>
+        <v>39284.0</v>
       </c>
       <c r="F86" t="n">
-        <v>314918.0</v>
+        <v>956561.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111453.0</v>
+        <v>259813.0</v>
       </c>
       <c r="B87" t="n">
-        <v>22158.0</v>
+        <v>104336.0</v>
       </c>
       <c r="C87" t="n">
-        <v>49868.0</v>
+        <v>289467.0</v>
       </c>
       <c r="D87" t="n">
-        <v>1796.0</v>
+        <v>0.0</v>
       </c>
       <c r="E87" t="n">
-        <v>16502.0</v>
+        <v>39273.0</v>
       </c>
       <c r="F87" t="n">
-        <v>314316.0</v>
+        <v>990717.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>116951.0</v>
+        <v>269593.0</v>
       </c>
       <c r="B88" t="n">
-        <v>22765.0</v>
+        <v>107825.0</v>
       </c>
       <c r="C88" t="n">
-        <v>50772.0</v>
+        <v>296105.0</v>
       </c>
       <c r="D88" t="n">
-        <v>1767.0</v>
+        <v>0.0</v>
       </c>
       <c r="E88" t="n">
-        <v>16753.0</v>
+        <v>39802.0</v>
       </c>
       <c r="F88" t="n">
-        <v>319940.0</v>
+        <v>1021769.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>123908.0</v>
+        <v>284294.0</v>
       </c>
       <c r="B89" t="n">
-        <v>22437.0</v>
+        <v>111368.0</v>
       </c>
       <c r="C89" t="n">
-        <v>51501.0</v>
+        <v>300166.0</v>
       </c>
       <c r="D89" t="n">
-        <v>1916.0</v>
+        <v>0.0</v>
       </c>
       <c r="E89" t="n">
-        <v>17403.0</v>
+        <v>39932.0</v>
       </c>
       <c r="F89" t="n">
-        <v>326155.0</v>
+        <v>1055648.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>188127.0</v>
+        <v>296515.0</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
       </c>
       <c r="C90" t="n">
-        <v>46992.0</v>
+        <v>260086.0</v>
       </c>
       <c r="D90" t="n">
-        <v>1932.0</v>
+        <v>0.0</v>
       </c>
       <c r="E90" t="n">
-        <v>17940.0</v>
+        <v>40828.0</v>
       </c>
       <c r="F90" t="n">
         <v>0.0</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>217753.0</v>
+        <v>550645.0</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
@@ -2164,119 +2164,119 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>117719.0</v>
+        <v>264043.0</v>
       </c>
       <c r="B92" t="n">
-        <v>21284.0</v>
+        <v>100478.0</v>
       </c>
       <c r="C92" t="n">
-        <v>47086.0</v>
+        <v>289836.0</v>
       </c>
       <c r="D92" t="n">
-        <v>2336.0</v>
+        <v>0.0</v>
       </c>
       <c r="E92" t="n">
-        <v>18792.0</v>
+        <v>45732.0</v>
       </c>
       <c r="F92" t="n">
-        <v>332338.0</v>
+        <v>1051931.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>123667.0</v>
+        <v>276295.0</v>
       </c>
       <c r="B93" t="n">
-        <v>25600.0</v>
+        <v>106984.0</v>
       </c>
       <c r="C93" t="n">
-        <v>54490.0</v>
+        <v>302368.0</v>
       </c>
       <c r="D93" t="n">
-        <v>2308.0</v>
+        <v>0.0</v>
       </c>
       <c r="E93" t="n">
-        <v>19092.0</v>
+        <v>46439.0</v>
       </c>
       <c r="F93" t="n">
-        <v>353545.0</v>
+        <v>1087851.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>125963.0</v>
+        <v>286089.0</v>
       </c>
       <c r="B94" t="n">
-        <v>25478.0</v>
+        <v>111026.0</v>
       </c>
       <c r="C94" t="n">
-        <v>54211.0</v>
+        <v>309710.0</v>
       </c>
       <c r="D94" t="n">
-        <v>2193.0</v>
+        <v>0.0</v>
       </c>
       <c r="E94" t="n">
-        <v>18662.0</v>
+        <v>46236.0</v>
       </c>
       <c r="F94" t="n">
-        <v>355618.0</v>
+        <v>1119029.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>130646.0</v>
+        <v>294636.0</v>
       </c>
       <c r="B95" t="n">
-        <v>25662.0</v>
+        <v>113451.0</v>
       </c>
       <c r="C95" t="n">
-        <v>56005.0</v>
+        <v>315033.0</v>
       </c>
       <c r="D95" t="n">
-        <v>2399.0</v>
+        <v>0.0</v>
       </c>
       <c r="E95" t="n">
-        <v>18959.0</v>
+        <v>46924.0</v>
       </c>
       <c r="F95" t="n">
-        <v>363026.0</v>
+        <v>1151802.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>137846.0</v>
+        <v>306283.0</v>
       </c>
       <c r="B96" t="n">
-        <v>24991.0</v>
+        <v>115307.0</v>
       </c>
       <c r="C96" t="n">
-        <v>57349.0</v>
+        <v>319714.0</v>
       </c>
       <c r="D96" t="n">
-        <v>2547.0</v>
+        <v>0.0</v>
       </c>
       <c r="E96" t="n">
-        <v>19427.0</v>
+        <v>47120.0</v>
       </c>
       <c r="F96" t="n">
-        <v>371429.0</v>
+        <v>1183817.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>207451.0</v>
+        <v>311539.0</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
       </c>
       <c r="C97" t="n">
-        <v>51482.0</v>
+        <v>276791.0</v>
       </c>
       <c r="D97" t="n">
-        <v>2420.0</v>
+        <v>0.0</v>
       </c>
       <c r="E97" t="n">
-        <v>19644.0</v>
+        <v>47403.0</v>
       </c>
       <c r="F97" t="n">
         <v>0.0</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>240014.0</v>
+        <v>594588.0</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -2304,107 +2304,107 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>137039.0</v>
+        <v>281734.0</v>
       </c>
       <c r="B99" t="n">
-        <v>23010.0</v>
+        <v>108562.0</v>
       </c>
       <c r="C99" t="n">
         <v>0.0</v>
       </c>
       <c r="D99" t="n">
-        <v>2522.0</v>
+        <v>0.0</v>
       </c>
       <c r="E99" t="n">
-        <v>21055.0</v>
+        <v>51662.0</v>
       </c>
       <c r="F99" t="n">
-        <v>371553.0</v>
+        <v>1170832.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>135171.0</v>
+        <v>278201.0</v>
       </c>
       <c r="B100" t="n">
-        <v>27689.0</v>
+        <v>113723.0</v>
       </c>
       <c r="C100" t="n">
         <v>0.0</v>
       </c>
       <c r="D100" t="n">
-        <v>2675.0</v>
+        <v>0.0</v>
       </c>
       <c r="E100" t="n">
-        <v>21083.0</v>
+        <v>52020.0</v>
       </c>
       <c r="F100" t="n">
-        <v>393527.0</v>
+        <v>1206947.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>132317.0</v>
+        <v>278858.0</v>
       </c>
       <c r="B101" t="n">
-        <v>26437.0</v>
+        <v>116937.0</v>
       </c>
       <c r="C101" t="n">
         <v>0.0</v>
       </c>
       <c r="D101" t="n">
-        <v>2726.0</v>
+        <v>0.0</v>
       </c>
       <c r="E101" t="n">
-        <v>20761.0</v>
+        <v>52196.0</v>
       </c>
       <c r="F101" t="n">
-        <v>394918.0</v>
+        <v>1239701.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>129652.0</v>
+        <v>279104.0</v>
       </c>
       <c r="B102" t="n">
-        <v>26929.0</v>
+        <v>119304.0</v>
       </c>
       <c r="C102" t="n">
         <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>2786.0</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>20898.0</v>
+        <v>51492.0</v>
       </c>
       <c r="F102" t="n">
-        <v>391771.0</v>
+        <v>1268603.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>129783.0</v>
+        <v>279764.0</v>
       </c>
       <c r="B103" t="n">
-        <v>25423.0</v>
+        <v>120559.0</v>
       </c>
       <c r="C103" t="n">
         <v>0.0</v>
       </c>
       <c r="D103" t="n">
-        <v>2959.0</v>
+        <v>0.0</v>
       </c>
       <c r="E103" t="n">
-        <v>20695.0</v>
+        <v>51241.0</v>
       </c>
       <c r="F103" t="n">
-        <v>389756.0</v>
+        <v>1292873.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>193052.0</v>
+        <v>278447.0</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -2413,10 +2413,10 @@
         <v>0.0</v>
       </c>
       <c r="D104" t="n">
-        <v>2766.0</v>
+        <v>0.0</v>
       </c>
       <c r="E104" t="n">
-        <v>20620.0</v>
+        <v>51405.0</v>
       </c>
       <c r="F104" t="n">
         <v>0.0</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>178721.0</v>
+        <v>504364.0</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
@@ -2444,119 +2444,119 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>103553.0</v>
+        <v>232545.0</v>
       </c>
       <c r="B106" t="n">
-        <v>19987.0</v>
+        <v>107265.0</v>
       </c>
       <c r="C106" t="n">
-        <v>37273.0</v>
+        <v>202327.0</v>
       </c>
       <c r="D106" t="n">
-        <v>2719.0</v>
+        <v>0.0</v>
       </c>
       <c r="E106" t="n">
-        <v>20868.0</v>
+        <v>52816.0</v>
       </c>
       <c r="F106" t="n">
-        <v>342157.0</v>
+        <v>1212277.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>108870.0</v>
+        <v>215734.0</v>
       </c>
       <c r="B107" t="n">
-        <v>23594.0</v>
+        <v>113049.0</v>
       </c>
       <c r="C107" t="n">
-        <v>43627.0</v>
+        <v>219182.0</v>
       </c>
       <c r="D107" t="n">
-        <v>2620.0</v>
+        <v>0.0</v>
       </c>
       <c r="E107" t="n">
-        <v>20369.0</v>
+        <v>52556.0</v>
       </c>
       <c r="F107" t="n">
-        <v>350045.0</v>
+        <v>1229482.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>110998.0</v>
+        <v>244097.0</v>
       </c>
       <c r="B108" t="n">
-        <v>22892.0</v>
+        <v>113744.0</v>
       </c>
       <c r="C108" t="n">
-        <v>43388.0</v>
+        <v>229748.0</v>
       </c>
       <c r="D108" t="n">
-        <v>2579.0</v>
+        <v>0.0</v>
       </c>
       <c r="E108" t="n">
-        <v>19510.0</v>
+        <v>52123.0</v>
       </c>
       <c r="F108" t="n">
-        <v>336745.0</v>
+        <v>1242628.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>114625.0</v>
+        <v>251628.0</v>
       </c>
       <c r="B109" t="n">
-        <v>22229.0</v>
+        <v>114813.0</v>
       </c>
       <c r="C109" t="n">
-        <v>44477.0</v>
+        <v>241288.0</v>
       </c>
       <c r="D109" t="n">
-        <v>2478.0</v>
+        <v>0.0</v>
       </c>
       <c r="E109" t="n">
-        <v>19332.0</v>
+        <v>51393.0</v>
       </c>
       <c r="F109" t="n">
-        <v>328755.0</v>
+        <v>1257459.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>119219.0</v>
+        <v>262994.0</v>
       </c>
       <c r="B110" t="n">
-        <v>21158.0</v>
+        <v>115547.0</v>
       </c>
       <c r="C110" t="n">
-        <v>45872.0</v>
+        <v>255052.0</v>
       </c>
       <c r="D110" t="n">
-        <v>2668.0</v>
+        <v>0.0</v>
       </c>
       <c r="E110" t="n">
-        <v>19026.0</v>
+        <v>50393.0</v>
       </c>
       <c r="F110" t="n">
-        <v>326711.0</v>
+        <v>1271794.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>181636.0</v>
+        <v>275180.0</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>42207.0</v>
+        <v>230538.0</v>
       </c>
       <c r="D111" t="n">
-        <v>2575.0</v>
+        <v>0.0</v>
       </c>
       <c r="E111" t="n">
-        <v>18470.0</v>
+        <v>49818.0</v>
       </c>
       <c r="F111" t="n">
         <v>0.0</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>207392.0</v>
+        <v>518389.0</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
@@ -2584,119 +2584,119 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111485.0</v>
+        <v>243228.0</v>
       </c>
       <c r="B113" t="n">
-        <v>19037.0</v>
+        <v>102403.0</v>
       </c>
       <c r="C113" t="n">
-        <v>42196.0</v>
+        <v>273437.0</v>
       </c>
       <c r="D113" t="n">
-        <v>2470.0</v>
+        <v>0.0</v>
       </c>
       <c r="E113" t="n">
-        <v>18954.0</v>
+        <v>52253.0</v>
       </c>
       <c r="F113" t="n">
-        <v>315169.0</v>
+        <v>1179105.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>116312.0</v>
+        <v>258638.0</v>
       </c>
       <c r="B114" t="n">
-        <v>22819.0</v>
+        <v>106866.0</v>
       </c>
       <c r="C114" t="n">
-        <v>49881.0</v>
+        <v>293857.0</v>
       </c>
       <c r="D114" t="n">
-        <v>2668.0</v>
+        <v>0.0</v>
       </c>
       <c r="E114" t="n">
-        <v>19043.0</v>
+        <v>52202.0</v>
       </c>
       <c r="F114" t="n">
-        <v>334751.0</v>
+        <v>1198356.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>118160.0</v>
+        <v>271396.0</v>
       </c>
       <c r="B115" t="n">
-        <v>21645.0</v>
+        <v>109658.0</v>
       </c>
       <c r="C115" t="n">
-        <v>49579.0</v>
+        <v>308524.0</v>
       </c>
       <c r="D115" t="n">
-        <v>2677.0</v>
+        <v>0.0</v>
       </c>
       <c r="E115" t="n">
-        <v>18481.0</v>
+        <v>51869.0</v>
       </c>
       <c r="F115" t="n">
-        <v>335191.0</v>
+        <v>1220576.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>122974.0</v>
+        <v>285586.0</v>
       </c>
       <c r="B116" t="n">
-        <v>22301.0</v>
+        <v>111583.0</v>
       </c>
       <c r="C116" t="n">
-        <v>50904.0</v>
+        <v>319656.0</v>
       </c>
       <c r="D116" t="n">
-        <v>2708.0</v>
+        <v>0.0</v>
       </c>
       <c r="E116" t="n">
-        <v>18243.0</v>
+        <v>51294.0</v>
       </c>
       <c r="F116" t="n">
-        <v>338145.0</v>
+        <v>1243929.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>127454.0</v>
+        <v>299720.0</v>
       </c>
       <c r="B117" t="n">
-        <v>21757.0</v>
+        <v>112755.0</v>
       </c>
       <c r="C117" t="n">
-        <v>51997.0</v>
+        <v>327399.0</v>
       </c>
       <c r="D117" t="n">
-        <v>2648.0</v>
+        <v>0.0</v>
       </c>
       <c r="E117" t="n">
-        <v>18901.0</v>
+        <v>50938.0</v>
       </c>
       <c r="F117" t="n">
-        <v>345896.0</v>
+        <v>1276099.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>194287.0</v>
+        <v>314796.0</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
       </c>
       <c r="C118" t="n">
-        <v>47506.0</v>
+        <v>286882.0</v>
       </c>
       <c r="D118" t="n">
-        <v>2779.0</v>
+        <v>0.0</v>
       </c>
       <c r="E118" t="n">
-        <v>19488.0</v>
+        <v>51600.0</v>
       </c>
       <c r="F118" t="n">
         <v>0.0</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>222160.0</v>
+        <v>590581.0</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -2724,119 +2724,119 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>119573.0</v>
+        <v>279817.0</v>
       </c>
       <c r="B120" t="n">
-        <v>18788.0</v>
+        <v>104877.0</v>
       </c>
       <c r="C120" t="n">
-        <v>48085.0</v>
+        <v>322192.0</v>
       </c>
       <c r="D120" t="n">
-        <v>2746.0</v>
+        <v>0.0</v>
       </c>
       <c r="E120" t="n">
-        <v>20337.0</v>
+        <v>55653.0</v>
       </c>
       <c r="F120" t="n">
-        <v>346145.0</v>
+        <v>1242783.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>124766.0</v>
+        <v>295893.0</v>
       </c>
       <c r="B121" t="n">
-        <v>22571.0</v>
+        <v>111372.0</v>
       </c>
       <c r="C121" t="n">
-        <v>55175.0</v>
+        <v>334985.0</v>
       </c>
       <c r="D121" t="n">
-        <v>2818.0</v>
+        <v>0.0</v>
       </c>
       <c r="E121" t="n">
-        <v>20167.0</v>
+        <v>55678.0</v>
       </c>
       <c r="F121" t="n">
-        <v>365364.0</v>
+        <v>1283627.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>127741.0</v>
+        <v>307756.0</v>
       </c>
       <c r="B122" t="n">
-        <v>21341.0</v>
+        <v>114679.0</v>
       </c>
       <c r="C122" t="n">
-        <v>54912.0</v>
+        <v>341793.0</v>
       </c>
       <c r="D122" t="n">
-        <v>2780.0</v>
+        <v>0.0</v>
       </c>
       <c r="E122" t="n">
-        <v>19644.0</v>
+        <v>56227.0</v>
       </c>
       <c r="F122" t="n">
-        <v>365945.0</v>
+        <v>1318553.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>132423.0</v>
+        <v>319403.0</v>
       </c>
       <c r="B123" t="n">
-        <v>21892.0</v>
+        <v>117389.0</v>
       </c>
       <c r="C123" t="n">
-        <v>55811.0</v>
+        <v>344171.0</v>
       </c>
       <c r="D123" t="n">
-        <v>2710.0</v>
+        <v>0.0</v>
       </c>
       <c r="E123" t="n">
-        <v>20196.0</v>
+        <v>56700.0</v>
       </c>
       <c r="F123" t="n">
-        <v>368606.0</v>
+        <v>1361602.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111245.0</v>
+        <v>333384.0</v>
       </c>
       <c r="B124" t="n">
-        <v>21358.0</v>
+        <v>119398.0</v>
       </c>
       <c r="C124" t="n">
-        <v>56155.0</v>
+        <v>347066.0</v>
       </c>
       <c r="D124" t="n">
-        <v>2967.0</v>
+        <v>0.0</v>
       </c>
       <c r="E124" t="n">
-        <v>20506.0</v>
+        <v>56330.0</v>
       </c>
       <c r="F124" t="n">
-        <v>374418.0</v>
+        <v>1403136.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>204654.0</v>
+        <v>319811.0</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
       </c>
       <c r="C125" t="n">
-        <v>51702.0</v>
+        <v>300094.0</v>
       </c>
       <c r="D125" t="n">
-        <v>3046.0</v>
+        <v>0.0</v>
       </c>
       <c r="E125" t="n">
-        <v>20611.0</v>
+        <v>57119.0</v>
       </c>
       <c r="F125" t="n">
         <v>0.0</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>232805.0</v>
+        <v>648742.0</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -2864,119 +2864,119 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>125307.0</v>
+        <v>308649.0</v>
       </c>
       <c r="B127" t="n">
-        <v>19460.0</v>
+        <v>111250.0</v>
       </c>
       <c r="C127" t="n">
-        <v>49170.0</v>
+        <v>334970.0</v>
       </c>
       <c r="D127" t="n">
-        <v>3103.0</v>
+        <v>0.0</v>
       </c>
       <c r="E127" t="n">
-        <v>21529.0</v>
+        <v>61451.0</v>
       </c>
       <c r="F127" t="n">
-        <v>368856.0</v>
+        <v>1371757.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>131058.0</v>
+        <v>279428.0</v>
       </c>
       <c r="B128" t="n">
-        <v>23026.0</v>
+        <v>118413.0</v>
       </c>
       <c r="C128" t="n">
-        <v>56691.0</v>
+        <v>345139.0</v>
       </c>
       <c r="D128" t="n">
-        <v>3013.0</v>
+        <v>0.0</v>
       </c>
       <c r="E128" t="n">
-        <v>21592.0</v>
+        <v>61255.0</v>
       </c>
       <c r="F128" t="n">
-        <v>388466.0</v>
+        <v>1413912.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>133000.0</v>
+        <v>238489.0</v>
       </c>
       <c r="B129" t="n">
-        <v>23516.0</v>
+        <v>123012.0</v>
       </c>
       <c r="C129" t="n">
-        <v>56234.0</v>
+        <v>352207.0</v>
       </c>
       <c r="D129" t="n">
-        <v>3230.0</v>
+        <v>0.0</v>
       </c>
       <c r="E129" t="n">
-        <v>21296.0</v>
+        <v>61171.0</v>
       </c>
       <c r="F129" t="n">
-        <v>386500.0</v>
+        <v>1458033.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>137304.0</v>
+        <v>342448.0</v>
       </c>
       <c r="B130" t="n">
-        <v>23076.0</v>
+        <v>126283.0</v>
       </c>
       <c r="C130" t="n">
-        <v>56342.0</v>
+        <v>356772.0</v>
       </c>
       <c r="D130" t="n">
-        <v>3145.0</v>
+        <v>0.0</v>
       </c>
       <c r="E130" t="n">
-        <v>21307.0</v>
+        <v>61141.0</v>
       </c>
       <c r="F130" t="n">
-        <v>387020.0</v>
+        <v>1496429.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>142366.0</v>
+        <v>360135.0</v>
       </c>
       <c r="B131" t="n">
-        <v>22923.0</v>
+        <v>128321.0</v>
       </c>
       <c r="C131" t="n">
-        <v>55940.0</v>
+        <v>359888.0</v>
       </c>
       <c r="D131" t="n">
-        <v>3043.0</v>
+        <v>0.0</v>
       </c>
       <c r="E131" t="n">
-        <v>21692.0</v>
+        <v>60958.0</v>
       </c>
       <c r="F131" t="n">
-        <v>394923.0</v>
+        <v>1538638.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>216443.0</v>
+        <v>372419.0</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
       </c>
       <c r="C132" t="n">
-        <v>50802.0</v>
+        <v>309526.0</v>
       </c>
       <c r="D132" t="n">
-        <v>2827.0</v>
+        <v>0.0</v>
       </c>
       <c r="E132" t="n">
-        <v>21654.0</v>
+        <v>60562.0</v>
       </c>
       <c r="F132" t="n">
         <v>0.0</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>246138.0</v>
+        <v>688908.0</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
@@ -3004,119 +3004,119 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>131803.0</v>
+        <v>328528.0</v>
       </c>
       <c r="B134" t="n">
-        <v>20531.0</v>
+        <v>118177.0</v>
       </c>
       <c r="C134" t="n">
-        <v>50242.0</v>
+        <v>342240.0</v>
       </c>
       <c r="D134" t="n">
-        <v>2754.0</v>
+        <v>0.0</v>
       </c>
       <c r="E134" t="n">
-        <v>22910.0</v>
+        <v>64681.0</v>
       </c>
       <c r="F134" t="n">
-        <v>387943.0</v>
+        <v>1499357.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>137856.0</v>
+        <v>341490.0</v>
       </c>
       <c r="B135" t="n">
-        <v>24686.0</v>
+        <v>126806.0</v>
       </c>
       <c r="C135" t="n">
-        <v>56435.0</v>
+        <v>349044.0</v>
       </c>
       <c r="D135" t="n">
-        <v>3025.0</v>
+        <v>0.0</v>
       </c>
       <c r="E135" t="n">
-        <v>22462.0</v>
+        <v>65101.0</v>
       </c>
       <c r="F135" t="n">
-        <v>409762.0</v>
+        <v>1545972.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>138919.0</v>
+        <v>351687.0</v>
       </c>
       <c r="B136" t="n">
-        <v>24358.0</v>
+        <v>130931.0</v>
       </c>
       <c r="C136" t="n">
-        <v>55837.0</v>
+        <v>355043.0</v>
       </c>
       <c r="D136" t="n">
-        <v>2911.0</v>
+        <v>0.0</v>
       </c>
       <c r="E136" t="n">
-        <v>21831.0</v>
+        <v>65506.0</v>
       </c>
       <c r="F136" t="n">
-        <v>409508.0</v>
+        <v>1583321.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>142818.0</v>
+        <v>359961.0</v>
       </c>
       <c r="B137" t="n">
-        <v>24745.0</v>
+        <v>133638.0</v>
       </c>
       <c r="C137" t="n">
-        <v>56398.0</v>
+        <v>360339.0</v>
       </c>
       <c r="D137" t="n">
-        <v>2649.0</v>
+        <v>0.0</v>
       </c>
       <c r="E137" t="n">
-        <v>22314.0</v>
+        <v>66223.0</v>
       </c>
       <c r="F137" t="n">
-        <v>412795.0</v>
+        <v>1627046.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>147129.0</v>
+        <v>393000.0</v>
       </c>
       <c r="B138" t="n">
-        <v>24597.0</v>
+        <v>135644.0</v>
       </c>
       <c r="C138" t="n">
-        <v>57674.0</v>
+        <v>364177.0</v>
       </c>
       <c r="D138" t="n">
-        <v>2518.0</v>
+        <v>0.0</v>
       </c>
       <c r="E138" t="n">
-        <v>21926.0</v>
+        <v>66334.0</v>
       </c>
       <c r="F138" t="n">
-        <v>417780.0</v>
+        <v>1671939.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>222249.0</v>
+        <v>310563.0</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
       </c>
       <c r="C139" t="n">
-        <v>52230.0</v>
+        <v>312488.0</v>
       </c>
       <c r="D139" t="n">
-        <v>2825.0</v>
+        <v>0.0</v>
       </c>
       <c r="E139" t="n">
-        <v>21977.0</v>
+        <v>67139.0</v>
       </c>
       <c r="F139" t="n">
         <v>0.0</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>250597.0</v>
+        <v>726128.0</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
@@ -3144,93 +3144,93 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>129301.0</v>
+        <v>339395.0</v>
       </c>
       <c r="B141" t="n">
-        <v>21415.0</v>
+        <v>122874.0</v>
       </c>
       <c r="C141" t="n">
-        <v>50874.0</v>
+        <v>346956.0</v>
       </c>
       <c r="D141" t="n">
-        <v>2824.0</v>
+        <v>0.0</v>
       </c>
       <c r="E141" t="n">
-        <v>22779.0</v>
+        <v>71853.0</v>
       </c>
       <c r="F141" t="n">
-        <v>404001.0</v>
+        <v>1607179.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>140120.0</v>
+        <v>353602.0</v>
       </c>
       <c r="B142" t="n">
-        <v>25710.0</v>
+        <v>129903.0</v>
       </c>
       <c r="C142" t="n">
-        <v>58340.0</v>
+        <v>355754.0</v>
       </c>
       <c r="D142" t="n">
-        <v>3206.0</v>
+        <v>0.0</v>
       </c>
       <c r="E142" t="n">
-        <v>22574.0</v>
+        <v>72369.0</v>
       </c>
       <c r="F142" t="n">
-        <v>425720.0</v>
+        <v>1645787.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>141146.0</v>
+        <v>369577.0</v>
       </c>
       <c r="B143" t="n">
-        <v>24082.0</v>
+        <v>132151.0</v>
       </c>
       <c r="C143" t="n">
-        <v>58575.0</v>
+        <v>361219.0</v>
       </c>
       <c r="D143" t="n">
-        <v>3128.0</v>
+        <v>0.0</v>
       </c>
       <c r="E143" t="n">
-        <v>21801.0</v>
+        <v>72415.0</v>
       </c>
       <c r="F143" t="n">
-        <v>424794.0</v>
+        <v>1676932.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>145075.0</v>
+        <v>379308.0</v>
       </c>
       <c r="B144" t="n">
-        <v>24555.0</v>
+        <v>132432.0</v>
       </c>
       <c r="C144" t="n">
-        <v>58835.0</v>
+        <v>364212.0</v>
       </c>
       <c r="D144" t="n">
-        <v>3297.0</v>
+        <v>0.0</v>
       </c>
       <c r="E144" t="n">
-        <v>21994.0</v>
+        <v>72714.0</v>
       </c>
       <c r="F144" t="n">
-        <v>425896.0</v>
+        <v>1715646.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>155008.0</v>
+        <v>389577.0</v>
       </c>
       <c r="B145" t="n">
-        <v>24145.0</v>
+        <v>132445.0</v>
       </c>
       <c r="C145" t="n">
-        <v>58398.0</v>
+        <v>368723.0</v>
       </c>
       <c r="D145" t="n">
         <v>0.0</v>
@@ -3239,18 +3239,18 @@
         <v>0.0</v>
       </c>
       <c r="F145" t="n">
-        <v>427237.0</v>
+        <v>1752353.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>191985.0</v>
+        <v>405850.0</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
       </c>
       <c r="C146" t="n">
-        <v>52883.0</v>
+        <v>318229.0</v>
       </c>
       <c r="D146" t="n">
         <v>0.0</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>248181.0</v>
+        <v>687084.0</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
@@ -3284,13 +3284,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>139788.0</v>
+        <v>352397.0</v>
       </c>
       <c r="B148" t="n">
-        <v>21187.0</v>
+        <v>117441.0</v>
       </c>
       <c r="C148" t="n">
-        <v>51179.0</v>
+        <v>350088.0</v>
       </c>
       <c r="D148" t="n">
         <v>0.0</v>
@@ -3299,15 +3299,15 @@
         <v>0.0</v>
       </c>
       <c r="F148" t="n">
-        <v>418390.0</v>
+        <v>1661018.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>153276.0</v>
+        <v>359804.0</v>
       </c>
       <c r="B149" t="n">
-        <v>25708.0</v>
+        <v>124460.0</v>
       </c>
       <c r="C149" t="n">
         <v>0.0</v>
@@ -3319,15 +3319,15 @@
         <v>0.0</v>
       </c>
       <c r="F149" t="n">
-        <v>440109.0</v>
+        <v>1693043.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>148798.0</v>
+        <v>363734.0</v>
       </c>
       <c r="B150" t="n">
-        <v>24328.0</v>
+        <v>125384.0</v>
       </c>
       <c r="C150" t="n">
         <v>0.0</v>
@@ -3339,15 +3339,15 @@
         <v>0.0</v>
       </c>
       <c r="F150" t="n">
-        <v>437404.0</v>
+        <v>1723644.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>143705.0</v>
+        <v>362636.0</v>
       </c>
       <c r="B151" t="n">
-        <v>24486.0</v>
+        <v>126600.0</v>
       </c>
       <c r="C151" t="n">
         <v>0.0</v>
@@ -3359,15 +3359,15 @@
         <v>0.0</v>
       </c>
       <c r="F151" t="n">
-        <v>435372.0</v>
+        <v>1751407.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>141836.0</v>
+        <v>360771.0</v>
       </c>
       <c r="B152" t="n">
-        <v>22957.0</v>
+        <v>127164.0</v>
       </c>
       <c r="C152" t="n">
         <v>0.0</v>
@@ -3379,12 +3379,12 @@
         <v>0.0</v>
       </c>
       <c r="F152" t="n">
-        <v>431235.0</v>
+        <v>1785310.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>211069.0</v>
+        <v>360534.0</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>202777.0</v>
+        <v>645572.0</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>159888.0</v>
+        <v>575946.0</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>154491.0</v>
+        <v>504798.0</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>127644.0</v>
+        <v>427866.0</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -3484,13 +3484,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>63427.0</v>
+        <v>187591.0</v>
       </c>
       <c r="B158" t="n">
-        <v>16423.0</v>
+        <v>89431.0</v>
       </c>
       <c r="C158" t="n">
-        <v>27845.0</v>
+        <v>199106.0</v>
       </c>
       <c r="D158" t="n">
         <v>0.0</v>
@@ -3499,18 +3499,18 @@
         <v>0.0</v>
       </c>
       <c r="F158" t="n">
-        <v>275784.0</v>
+        <v>1372749.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>62578.0</v>
+        <v>176956.0</v>
       </c>
       <c r="B159" t="n">
-        <v>20396.0</v>
+        <v>97291.0</v>
       </c>
       <c r="C159" t="n">
-        <v>32553.0</v>
+        <v>218274.0</v>
       </c>
       <c r="D159" t="n">
         <v>0.0</v>
@@ -3519,12 +3519,12 @@
         <v>0.0</v>
       </c>
       <c r="F159" t="n">
-        <v>256485.0</v>
+        <v>1364401.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>99969.0</v>
+        <v>204804.0</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>93443.0</v>
+        <v>346397.0</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
@@ -3564,10 +3564,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>54877.0</v>
+        <v>158747.0</v>
       </c>
       <c r="B162" t="n">
-        <v>13435.0</v>
+        <v>84727.0</v>
       </c>
       <c r="C162" t="n">
         <v>0.0</v>
@@ -3579,15 +3579,15 @@
         <v>0.0</v>
       </c>
       <c r="F162" t="n">
-        <v>179614.0</v>
+        <v>1118487.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>57418.0</v>
+        <v>130213.0</v>
       </c>
       <c r="B163" t="n">
-        <v>15772.0</v>
+        <v>87808.0</v>
       </c>
       <c r="C163" t="n">
         <v>0.0</v>
@@ -3599,18 +3599,18 @@
         <v>0.0</v>
       </c>
       <c r="F163" t="n">
-        <v>179661.0</v>
+        <v>1054693.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>56682.0</v>
+        <v>160426.0</v>
       </c>
       <c r="B164" t="n">
-        <v>14600.0</v>
+        <v>85424.0</v>
       </c>
       <c r="C164" t="n">
-        <v>20208.0</v>
+        <v>159585.0</v>
       </c>
       <c r="D164" t="n">
         <v>0.0</v>
@@ -3619,38 +3619,38 @@
         <v>0.0</v>
       </c>
       <c r="F164" t="n">
-        <v>174727.0</v>
+        <v>999029.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>58896.0</v>
+        <v>172190.0</v>
       </c>
       <c r="B165" t="n">
-        <v>14070.0</v>
+        <v>83675.0</v>
       </c>
       <c r="C165" t="n">
-        <v>24801.0</v>
+        <v>185238.0</v>
       </c>
       <c r="D165" t="n">
-        <v>1157.0</v>
+        <v>0.0</v>
       </c>
       <c r="E165" t="n">
-        <v>10627.0</v>
+        <v>39965.0</v>
       </c>
       <c r="F165" t="n">
-        <v>174891.0</v>
+        <v>965536.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>64621.0</v>
+        <v>180324.0</v>
       </c>
       <c r="B166" t="n">
-        <v>12708.0</v>
+        <v>80804.0</v>
       </c>
       <c r="C166" t="n">
-        <v>24043.0</v>
+        <v>198537.0</v>
       </c>
       <c r="D166" t="n">
         <v>0.0</v>
@@ -3659,18 +3659,18 @@
         <v>0.0</v>
       </c>
       <c r="F166" t="n">
-        <v>176044.0</v>
+        <v>937932.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>101010.0</v>
+        <v>167603.0</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
       </c>
       <c r="C167" t="n">
-        <v>22278.0</v>
+        <v>174865.0</v>
       </c>
       <c r="D167" t="n">
         <v>0.0</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>110781.0</v>
+        <v>368894.0</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -3704,33 +3704,33 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>60186.0</v>
+        <v>178041.0</v>
       </c>
       <c r="B169" t="n">
-        <v>11033.0</v>
+        <v>69699.0</v>
       </c>
       <c r="C169" t="n">
-        <v>22217.0</v>
+        <v>210488.0</v>
       </c>
       <c r="D169" t="n">
-        <v>1225.0</v>
+        <v>0.0</v>
       </c>
       <c r="E169" t="n">
-        <v>11210.0</v>
+        <v>35468.0</v>
       </c>
       <c r="F169" t="n">
-        <v>177251.0</v>
+        <v>874528.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>66227.0</v>
+        <v>190764.0</v>
       </c>
       <c r="B170" t="n">
-        <v>13119.0</v>
+        <v>73005.0</v>
       </c>
       <c r="C170" t="n">
-        <v>26093.0</v>
+        <v>231855.0</v>
       </c>
       <c r="D170" t="n">
         <v>0.0</v>
@@ -3739,18 +3739,18 @@
         <v>0.0</v>
       </c>
       <c r="F170" t="n">
-        <v>189645.0</v>
+        <v>887511.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>68412.0</v>
+        <v>203292.0</v>
       </c>
       <c r="B171" t="n">
-        <v>12301.0</v>
+        <v>74702.0</v>
       </c>
       <c r="C171" t="n">
-        <v>25906.0</v>
+        <v>247176.0</v>
       </c>
       <c r="D171" t="n">
         <v>0.0</v>
@@ -3759,18 +3759,18 @@
         <v>0.0</v>
       </c>
       <c r="F171" t="n">
-        <v>190027.0</v>
+        <v>903865.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>70912.0</v>
+        <v>218190.0</v>
       </c>
       <c r="B172" t="n">
-        <v>12268.0</v>
+        <v>76504.0</v>
       </c>
       <c r="C172" t="n">
-        <v>27593.0</v>
+        <v>257115.0</v>
       </c>
       <c r="D172" t="n">
         <v>0.0</v>
@@ -3779,38 +3779,38 @@
         <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>195853.0</v>
+        <v>931738.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>72792.0</v>
+        <v>234777.0</v>
       </c>
       <c r="B173" t="n">
-        <v>12044.0</v>
+        <v>77991.0</v>
       </c>
       <c r="C173" t="n">
-        <v>28719.0</v>
+        <v>264860.0</v>
       </c>
       <c r="D173" t="n">
-        <v>1159.0</v>
+        <v>0.0</v>
       </c>
       <c r="E173" t="n">
-        <v>11274.0</v>
+        <v>34408.0</v>
       </c>
       <c r="F173" t="n">
-        <v>201579.0</v>
+        <v>967299.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>116579.0</v>
+        <v>239002.0</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
       </c>
       <c r="C174" t="n">
-        <v>26110.0</v>
+        <v>235800.0</v>
       </c>
       <c r="D174" t="n">
         <v>0.0</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>128584.0</v>
+        <v>476062.0</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -3844,13 +3844,13 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>71814.0</v>
+        <v>227716.0</v>
       </c>
       <c r="B176" t="n">
-        <v>11102.0</v>
+        <v>75181.0</v>
       </c>
       <c r="C176" t="n">
-        <v>26628.0</v>
+        <v>272104.0</v>
       </c>
       <c r="D176" t="n">
         <v>0.0</v>
@@ -3859,38 +3859,38 @@
         <v>0.0</v>
       </c>
       <c r="F176" t="n">
-        <v>208397.0</v>
+        <v>992305.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>73033.0</v>
+        <v>242055.0</v>
       </c>
       <c r="B177" t="n">
-        <v>13883.0</v>
+        <v>80908.0</v>
       </c>
       <c r="C177" t="n">
-        <v>30939.0</v>
+        <v>286471.0</v>
       </c>
       <c r="D177" t="n">
-        <v>1296.0</v>
+        <v>0.0</v>
       </c>
       <c r="E177" t="n">
-        <v>13186.0</v>
+        <v>38689.0</v>
       </c>
       <c r="F177" t="n">
-        <v>224543.0</v>
+        <v>1031704.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>78011.0</v>
+        <v>254637.0</v>
       </c>
       <c r="B178" t="n">
-        <v>13346.0</v>
+        <v>84757.0</v>
       </c>
       <c r="C178" t="n">
-        <v>30690.0</v>
+        <v>299043.0</v>
       </c>
       <c r="D178" t="n">
         <v>0.0</v>
@@ -3899,18 +3899,18 @@
         <v>0.0</v>
       </c>
       <c r="F178" t="n">
-        <v>227958.0</v>
+        <v>1072630.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>81880.0</v>
+        <v>272240.0</v>
       </c>
       <c r="B179" t="n">
-        <v>13550.0</v>
+        <v>88137.0</v>
       </c>
       <c r="C179" t="n">
-        <v>32156.0</v>
+        <v>309180.0</v>
       </c>
       <c r="D179" t="n">
         <v>0.0</v>
@@ -3919,18 +3919,18 @@
         <v>0.0</v>
       </c>
       <c r="F179" t="n">
-        <v>233818.0</v>
+        <v>1116682.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>85503.0</v>
+        <v>291028.0</v>
       </c>
       <c r="B180" t="n">
-        <v>13228.0</v>
+        <v>91000.0</v>
       </c>
       <c r="C180" t="n">
-        <v>32659.0</v>
+        <v>317913.0</v>
       </c>
       <c r="D180" t="n">
         <v>0.0</v>
@@ -3939,24 +3939,24 @@
         <v>0.0</v>
       </c>
       <c r="F180" t="n">
-        <v>238656.0</v>
+        <v>1166988.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>127972.0</v>
+        <v>306599.0</v>
       </c>
       <c r="B181" t="n">
         <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>29902.0</v>
+        <v>279908.0</v>
       </c>
       <c r="D181" t="n">
-        <v>1403.0</v>
+        <v>0.0</v>
       </c>
       <c r="E181" t="n">
-        <v>13639.0</v>
+        <v>40712.0</v>
       </c>
       <c r="F181" t="n">
         <v>0.0</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>147445.0</v>
+        <v>581872.0</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
@@ -3984,13 +3984,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>82628.0</v>
+        <v>271497.0</v>
       </c>
       <c r="B183" t="n">
-        <v>13097.0</v>
+        <v>88699.0</v>
       </c>
       <c r="C183" t="n">
-        <v>31216.0</v>
+        <v>310576.0</v>
       </c>
       <c r="D183" t="n">
         <v>0.0</v>
@@ -3999,18 +3999,18 @@
         <v>0.0</v>
       </c>
       <c r="F183" t="n">
-        <v>240506.0</v>
+        <v>1208913.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>87079.0</v>
+        <v>289588.0</v>
       </c>
       <c r="B184" t="n">
-        <v>15730.0</v>
+        <v>95385.0</v>
       </c>
       <c r="C184" t="n">
-        <v>36484.0</v>
+        <v>323082.0</v>
       </c>
       <c r="D184" t="n">
         <v>0.0</v>
@@ -4019,18 +4019,18 @@
         <v>0.0</v>
       </c>
       <c r="F184" t="n">
-        <v>258474.0</v>
+        <v>1252857.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>89832.0</v>
+        <v>299783.0</v>
       </c>
       <c r="B185" t="n">
-        <v>15513.0</v>
+        <v>99720.0</v>
       </c>
       <c r="C185" t="n">
-        <v>36714.0</v>
+        <v>329819.0</v>
       </c>
       <c r="D185" t="n">
         <v>0.0</v>
@@ -4039,18 +4039,18 @@
         <v>0.0</v>
       </c>
       <c r="F185" t="n">
-        <v>259774.0</v>
+        <v>1294627.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>94124.0</v>
+        <v>317797.0</v>
       </c>
       <c r="B186" t="n">
-        <v>16100.0</v>
+        <v>104222.0</v>
       </c>
       <c r="C186" t="n">
-        <v>37375.0</v>
+        <v>335423.0</v>
       </c>
       <c r="D186" t="n">
         <v>0.0</v>
@@ -4059,18 +4059,18 @@
         <v>0.0</v>
       </c>
       <c r="F186" t="n">
-        <v>264216.0</v>
+        <v>1336107.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>99132.0</v>
+        <v>333675.0</v>
       </c>
       <c r="B187" t="n">
-        <v>15427.0</v>
+        <v>107490.0</v>
       </c>
       <c r="C187" t="n">
-        <v>37547.0</v>
+        <v>337397.0</v>
       </c>
       <c r="D187" t="n">
         <v>0.0</v>
@@ -4079,18 +4079,18 @@
         <v>0.0</v>
       </c>
       <c r="F187" t="n">
-        <v>269838.0</v>
+        <v>1386710.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>153288.0</v>
+        <v>303757.0</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
       </c>
       <c r="C188" t="n">
-        <v>34581.0</v>
+        <v>290364.0</v>
       </c>
       <c r="D188" t="n">
         <v>0.0</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>169406.0</v>
+        <v>671082.0</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
@@ -4124,13 +4124,13 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>94169.0</v>
+        <v>315343.0</v>
       </c>
       <c r="B190" t="n">
-        <v>14782.0</v>
+        <v>101944.0</v>
       </c>
       <c r="C190" t="n">
-        <v>35588.0</v>
+        <v>316833.0</v>
       </c>
       <c r="D190" t="n">
         <v>0.0</v>
@@ -4139,18 +4139,18 @@
         <v>0.0</v>
       </c>
       <c r="F190" t="n">
-        <v>273566.0</v>
+        <v>1387372.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>99022.0</v>
+        <v>326965.0</v>
       </c>
       <c r="B191" t="n">
-        <v>17993.0</v>
+        <v>108816.0</v>
       </c>
       <c r="C191" t="n">
-        <v>40606.0</v>
+        <v>328322.0</v>
       </c>
       <c r="D191" t="n">
         <v>0.0</v>
@@ -4159,18 +4159,18 @@
         <v>0.0</v>
       </c>
       <c r="F191" t="n">
-        <v>292174.0</v>
+        <v>1428762.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>100782.0</v>
+        <v>338969.0</v>
       </c>
       <c r="B192" t="n">
-        <v>17791.0</v>
+        <v>112623.0</v>
       </c>
       <c r="C192" t="n">
-        <v>41379.0</v>
+        <v>334562.0</v>
       </c>
       <c r="D192" t="n">
         <v>0.0</v>
@@ -4179,18 +4179,18 @@
         <v>0.0</v>
       </c>
       <c r="F192" t="n">
-        <v>294762.0</v>
+        <v>1467724.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>105742.0</v>
+        <v>355861.0</v>
       </c>
       <c r="B193" t="n">
-        <v>18297.0</v>
+        <v>113112.0</v>
       </c>
       <c r="C193" t="n">
-        <v>43056.0</v>
+        <v>337864.0</v>
       </c>
       <c r="D193" t="n">
         <v>0.0</v>
@@ -4199,18 +4199,18 @@
         <v>0.0</v>
       </c>
       <c r="F193" t="n">
-        <v>300800.0</v>
+        <v>1509896.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>95222.0</v>
+        <v>366309.0</v>
       </c>
       <c r="B194" t="n">
-        <v>17533.0</v>
+        <v>112056.0</v>
       </c>
       <c r="C194" t="n">
-        <v>44452.0</v>
+        <v>337385.0</v>
       </c>
       <c r="D194" t="n">
         <v>0.0</v>
@@ -4219,18 +4219,18 @@
         <v>0.0</v>
       </c>
       <c r="F194" t="n">
-        <v>306075.0</v>
+        <v>1542034.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>173214.0</v>
+        <v>380558.0</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
       </c>
       <c r="C195" t="n">
-        <v>39821.0</v>
+        <v>283989.0</v>
       </c>
       <c r="D195" t="n">
         <v>0.0</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>190702.0</v>
+        <v>700812.0</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -4264,119 +4264,119 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>103556.0</v>
+        <v>327866.0</v>
       </c>
       <c r="B197" t="n">
-        <v>16620.0</v>
+        <v>101115.0</v>
       </c>
       <c r="C197" t="n">
-        <v>40537.0</v>
+        <v>310436.0</v>
       </c>
       <c r="D197" t="n">
-        <v>1891.0</v>
+        <v>0.0</v>
       </c>
       <c r="E197" t="n">
-        <v>16624.0</v>
+        <v>57897.0</v>
       </c>
       <c r="F197" t="n">
-        <v>306327.0</v>
+        <v>1459156.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>109413.0</v>
+        <v>331417.0</v>
       </c>
       <c r="B198" t="n">
-        <v>20233.0</v>
+        <v>104501.0</v>
       </c>
       <c r="C198" t="n">
-        <v>47131.0</v>
+        <v>313675.0</v>
       </c>
       <c r="D198" t="n">
-        <v>1946.0</v>
+        <v>0.0</v>
       </c>
       <c r="E198" t="n">
-        <v>16838.0</v>
+        <v>57514.0</v>
       </c>
       <c r="F198" t="n">
-        <v>325925.0</v>
+        <v>1452704.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111886.0</v>
+        <v>338177.0</v>
       </c>
       <c r="B199" t="n">
-        <v>19644.0</v>
+        <v>106264.0</v>
       </c>
       <c r="C199" t="n">
-        <v>47087.0</v>
+        <v>315308.0</v>
       </c>
       <c r="D199" t="n">
-        <v>1960.0</v>
+        <v>0.0</v>
       </c>
       <c r="E199" t="n">
-        <v>17175.0</v>
+        <v>57256.0</v>
       </c>
       <c r="F199" t="n">
-        <v>327793.0</v>
+        <v>1451164.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>115776.0</v>
+        <v>342717.0</v>
       </c>
       <c r="B200" t="n">
-        <v>19538.0</v>
+        <v>105832.0</v>
       </c>
       <c r="C200" t="n">
-        <v>47738.0</v>
+        <v>312525.0</v>
       </c>
       <c r="D200" t="n">
-        <v>2023.0</v>
+        <v>0.0</v>
       </c>
       <c r="E200" t="n">
-        <v>17188.0</v>
+        <v>57112.0</v>
       </c>
       <c r="F200" t="n">
-        <v>334936.0</v>
+        <v>1446509.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>122737.0</v>
+        <v>345217.0</v>
       </c>
       <c r="B201" t="n">
-        <v>19570.0</v>
+        <v>104043.0</v>
       </c>
       <c r="C201" t="n">
-        <v>48090.0</v>
+        <v>307105.0</v>
       </c>
       <c r="D201" t="n">
-        <v>1989.0</v>
+        <v>0.0</v>
       </c>
       <c r="E201" t="n">
-        <v>17808.0</v>
+        <v>57426.0</v>
       </c>
       <c r="F201" t="n">
-        <v>343398.0</v>
+        <v>1447803.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>185989.0</v>
+        <v>354285.0</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
       </c>
       <c r="C202" t="n">
-        <v>44655.0</v>
+        <v>259275.0</v>
       </c>
       <c r="D202" t="n">
-        <v>2181.0</v>
+        <v>0.0</v>
       </c>
       <c r="E202" t="n">
-        <v>18000.0</v>
+        <v>57876.0</v>
       </c>
       <c r="F202" t="n">
         <v>0.0</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>212720.0</v>
+        <v>657546.0</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
@@ -4404,87 +4404,87 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>114185.0</v>
+        <v>304932.0</v>
       </c>
       <c r="B204" t="n">
-        <v>18204.0</v>
+        <v>91713.0</v>
       </c>
       <c r="C204" t="n">
-        <v>43624.0</v>
+        <v>280992.0</v>
       </c>
       <c r="D204" t="n">
-        <v>2358.0</v>
+        <v>0.0</v>
       </c>
       <c r="E204" t="n">
-        <v>18970.0</v>
+        <v>60622.0</v>
       </c>
       <c r="F204" t="n">
-        <v>342371.0</v>
+        <v>1336256.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>120364.0</v>
+        <v>306383.0</v>
       </c>
       <c r="B205" t="n">
-        <v>22286.0</v>
+        <v>97045.0</v>
       </c>
       <c r="C205" t="n">
-        <v>49835.0</v>
+        <v>285076.0</v>
       </c>
       <c r="D205" t="n">
-        <v>2582.0</v>
+        <v>0.0</v>
       </c>
       <c r="E205" t="n">
-        <v>19010.0</v>
+        <v>60102.0</v>
       </c>
       <c r="F205" t="n">
-        <v>364387.0</v>
+        <v>1334831.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>121741.0</v>
+        <v>309623.0</v>
       </c>
       <c r="B206" t="n">
-        <v>21288.0</v>
+        <v>97730.0</v>
       </c>
       <c r="C206" t="n">
-        <v>50193.0</v>
+        <v>287412.0</v>
       </c>
       <c r="D206" t="n">
-        <v>2502.0</v>
+        <v>0.0</v>
       </c>
       <c r="E206" t="n">
-        <v>18929.0</v>
+        <v>59772.0</v>
       </c>
       <c r="F206" t="n">
-        <v>362361.0</v>
+        <v>1327015.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>125981.0</v>
+        <v>316209.0</v>
       </c>
       <c r="B207" t="n">
-        <v>21890.0</v>
+        <v>96793.0</v>
       </c>
       <c r="C207" t="n">
-        <v>51368.0</v>
+        <v>286905.0</v>
       </c>
       <c r="D207" t="n">
-        <v>2640.0</v>
+        <v>0.0</v>
       </c>
       <c r="E207" t="n">
-        <v>19384.0</v>
+        <v>59210.0</v>
       </c>
       <c r="F207" t="n">
-        <v>365178.0</v>
+        <v>1323567.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>224324.0</v>
+        <v>621207.0</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -4504,19 +4504,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>174953.0</v>
+        <v>285389.0</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
       </c>
       <c r="C209" t="n">
-        <v>40277.0</v>
+        <v>226036.0</v>
       </c>
       <c r="D209" t="n">
-        <v>2681.0</v>
+        <v>0.0</v>
       </c>
       <c r="E209" t="n">
-        <v>19990.0</v>
+        <v>60469.0</v>
       </c>
       <c r="F209" t="n">
         <v>0.0</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>196255.0</v>
+        <v>520434.0</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
@@ -4544,119 +4544,119 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>101923.0</v>
+        <v>235080.0</v>
       </c>
       <c r="B211" t="n">
-        <v>18499.0</v>
+        <v>79712.0</v>
       </c>
       <c r="C211" t="n">
-        <v>44817.0</v>
+        <v>248362.0</v>
       </c>
       <c r="D211" t="n">
-        <v>2638.0</v>
+        <v>0.0</v>
       </c>
       <c r="E211" t="n">
-        <v>19863.0</v>
+        <v>58121.0</v>
       </c>
       <c r="F211" t="n">
-        <v>332201.0</v>
+        <v>1141045.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>106945.0</v>
+        <v>233184.0</v>
       </c>
       <c r="B212" t="n">
-        <v>23175.0</v>
+        <v>84569.0</v>
       </c>
       <c r="C212" t="n">
-        <v>51922.0</v>
+        <v>255205.0</v>
       </c>
       <c r="D212" t="n">
-        <v>2667.0</v>
+        <v>0.0</v>
       </c>
       <c r="E212" t="n">
-        <v>19720.0</v>
+        <v>56564.0</v>
       </c>
       <c r="F212" t="n">
-        <v>345855.0</v>
+        <v>1121489.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>109186.0</v>
+        <v>236449.0</v>
       </c>
       <c r="B213" t="n">
-        <v>21899.0</v>
+        <v>85403.0</v>
       </c>
       <c r="C213" t="n">
-        <v>50372.0</v>
+        <v>258771.0</v>
       </c>
       <c r="D213" t="n">
-        <v>2410.0</v>
+        <v>0.0</v>
       </c>
       <c r="E213" t="n">
-        <v>18954.0</v>
+        <v>54184.0</v>
       </c>
       <c r="F213" t="n">
-        <v>338292.0</v>
+        <v>1101724.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>113405.0</v>
+        <v>238819.0</v>
       </c>
       <c r="B214" t="n">
-        <v>22184.0</v>
+        <v>83293.0</v>
       </c>
       <c r="C214" t="n">
-        <v>51956.0</v>
+        <v>257520.0</v>
       </c>
       <c r="D214" t="n">
-        <v>2545.0</v>
+        <v>0.0</v>
       </c>
       <c r="E214" t="n">
-        <v>18537.0</v>
+        <v>51945.0</v>
       </c>
       <c r="F214" t="n">
-        <v>333417.0</v>
+        <v>1082096.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>121062.0</v>
+        <v>246981.0</v>
       </c>
       <c r="B215" t="n">
-        <v>21396.0</v>
+        <v>82213.0</v>
       </c>
       <c r="C215" t="n">
-        <v>51905.0</v>
+        <v>255263.0</v>
       </c>
       <c r="D215" t="n">
-        <v>2607.0</v>
+        <v>0.0</v>
       </c>
       <c r="E215" t="n">
-        <v>18292.0</v>
+        <v>50418.0</v>
       </c>
       <c r="F215" t="n">
-        <v>334793.0</v>
+        <v>1068750.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>184903.0</v>
+        <v>256493.0</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
       </c>
       <c r="C216" t="n">
-        <v>47561.0</v>
+        <v>220178.0</v>
       </c>
       <c r="D216" t="n">
-        <v>2380.0</v>
+        <v>0.0</v>
       </c>
       <c r="E216" t="n">
-        <v>18447.0</v>
+        <v>48019.0</v>
       </c>
       <c r="F216" t="n">
         <v>0.0</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>214176.0</v>
+        <v>473899.0</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -4684,67 +4684,67 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>115980.0</v>
+        <v>223284.0</v>
       </c>
       <c r="B218" t="n">
-        <v>19305.0</v>
+        <v>74154.0</v>
       </c>
       <c r="C218" t="n">
-        <v>46498.0</v>
+        <v>236238.0</v>
       </c>
       <c r="D218" t="n">
-        <v>2383.0</v>
+        <v>0.0</v>
       </c>
       <c r="E218" t="n">
-        <v>19178.0</v>
+        <v>46948.0</v>
       </c>
       <c r="F218" t="n">
-        <v>336880.0</v>
+        <v>974368.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>122067.0</v>
+        <v>224164.0</v>
       </c>
       <c r="B219" t="n">
-        <v>24171.0</v>
+        <v>76533.0</v>
       </c>
       <c r="C219" t="n">
-        <v>52663.0</v>
+        <v>236972.0</v>
       </c>
       <c r="D219" t="n">
-        <v>2559.0</v>
+        <v>0.0</v>
       </c>
       <c r="E219" t="n">
-        <v>19753.0</v>
+        <v>45285.0</v>
       </c>
       <c r="F219" t="n">
-        <v>358903.0</v>
+        <v>962352.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>123832.0</v>
+        <v>224014.0</v>
       </c>
       <c r="B220" t="n">
-        <v>23548.0</v>
+        <v>77634.0</v>
       </c>
       <c r="C220" t="n">
-        <v>51430.0</v>
+        <v>237134.0</v>
       </c>
       <c r="D220" t="n">
-        <v>2706.0</v>
+        <v>0.0</v>
       </c>
       <c r="E220" t="n">
-        <v>19473.0</v>
+        <v>43561.0</v>
       </c>
       <c r="F220" t="n">
-        <v>360047.0</v>
+        <v>953651.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>222151.0</v>
+        <v>428172.0</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
@@ -4764,39 +4764,39 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>116922.0</v>
+        <v>207836.0</v>
       </c>
       <c r="B222" t="n">
-        <v>19698.0</v>
+        <v>77033.0</v>
       </c>
       <c r="C222" t="n">
-        <v>44709.0</v>
+        <v>223112.0</v>
       </c>
       <c r="D222" t="n">
-        <v>2709.0</v>
+        <v>0.0</v>
       </c>
       <c r="E222" t="n">
-        <v>20051.0</v>
+        <v>43850.0</v>
       </c>
       <c r="F222" t="n">
-        <v>348713.0</v>
+        <v>937274.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>178428.0</v>
+        <v>218659.0</v>
       </c>
       <c r="B223" t="n">
         <v>0.0</v>
       </c>
       <c r="C223" t="n">
-        <v>46830.0</v>
+        <v>199515.0</v>
       </c>
       <c r="D223" t="n">
-        <v>2948.0</v>
+        <v>0.0</v>
       </c>
       <c r="E223" t="n">
-        <v>20504.0</v>
+        <v>43823.0</v>
       </c>
       <c r="F223" t="n">
         <v>0.0</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>199758.0</v>
+        <v>401324.0</v>
       </c>
       <c r="B224" t="n">
         <v>0.0</v>
@@ -4824,119 +4824,119 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>105893.0</v>
+        <v>189213.0</v>
       </c>
       <c r="B225" t="n">
-        <v>19818.0</v>
+        <v>73919.0</v>
       </c>
       <c r="C225" t="n">
-        <v>43549.0</v>
+        <v>224804.0</v>
       </c>
       <c r="D225" t="n">
-        <v>2954.0</v>
+        <v>0.0</v>
       </c>
       <c r="E225" t="n">
-        <v>20156.0</v>
+        <v>44147.0</v>
       </c>
       <c r="F225" t="n">
-        <v>336479.0</v>
+        <v>890507.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>111596.0</v>
+        <v>196420.0</v>
       </c>
       <c r="B226" t="n">
-        <v>23947.0</v>
+        <v>79495.0</v>
       </c>
       <c r="C226" t="n">
-        <v>50240.0</v>
+        <v>233028.0</v>
       </c>
       <c r="D226" t="n">
-        <v>3106.0</v>
+        <v>0.0</v>
       </c>
       <c r="E226" t="n">
-        <v>19717.0</v>
+        <v>43719.0</v>
       </c>
       <c r="F226" t="n">
-        <v>349690.0</v>
+        <v>907548.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>112890.0</v>
+        <v>203488.0</v>
       </c>
       <c r="B227" t="n">
-        <v>23074.0</v>
+        <v>82782.0</v>
       </c>
       <c r="C227" t="n">
-        <v>48696.0</v>
+        <v>238079.0</v>
       </c>
       <c r="D227" t="n">
-        <v>3013.0</v>
+        <v>0.0</v>
       </c>
       <c r="E227" t="n">
-        <v>19068.0</v>
+        <v>43535.0</v>
       </c>
       <c r="F227" t="n">
-        <v>339943.0</v>
+        <v>924919.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>119243.0</v>
+        <v>212901.0</v>
       </c>
       <c r="B228" t="n">
-        <v>22568.0</v>
+        <v>84011.0</v>
       </c>
       <c r="C228" t="n">
-        <v>50156.0</v>
+        <v>241521.0</v>
       </c>
       <c r="D228" t="n">
-        <v>2965.0</v>
+        <v>0.0</v>
       </c>
       <c r="E228" t="n">
-        <v>18822.0</v>
+        <v>42870.0</v>
       </c>
       <c r="F228" t="n">
-        <v>337936.0</v>
+        <v>941033.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>126003.0</v>
+        <v>223416.0</v>
       </c>
       <c r="B229" t="n">
-        <v>21997.0</v>
+        <v>85759.0</v>
       </c>
       <c r="C229" t="n">
-        <v>49788.0</v>
+        <v>245217.0</v>
       </c>
       <c r="D229" t="n">
-        <v>3102.0</v>
+        <v>0.0</v>
       </c>
       <c r="E229" t="n">
-        <v>18938.0</v>
+        <v>42596.0</v>
       </c>
       <c r="F229" t="n">
-        <v>342329.0</v>
+        <v>962259.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>193189.0</v>
+        <v>239004.0</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>45351.0</v>
+        <v>210481.0</v>
       </c>
       <c r="D230" t="n">
-        <v>2928.0</v>
+        <v>0.0</v>
       </c>
       <c r="E230" t="n">
-        <v>18913.0</v>
+        <v>41530.0</v>
       </c>
       <c r="F230" t="n">
         <v>0.0</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>220676.0</v>
+        <v>445396.0</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
@@ -4964,107 +4964,107 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>117972.0</v>
+        <v>209830.0</v>
       </c>
       <c r="B232" t="n">
-        <v>19511.0</v>
+        <v>78796.0</v>
       </c>
       <c r="C232" t="n">
-        <v>44394.0</v>
+        <v>228697.0</v>
       </c>
       <c r="D232" t="n">
-        <v>3119.0</v>
+        <v>0.0</v>
       </c>
       <c r="E232" t="n">
-        <v>19881.0</v>
+        <v>43738.0</v>
       </c>
       <c r="F232" t="n">
-        <v>334232.0</v>
+        <v>929911.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>122168.0</v>
+        <v>221512.0</v>
       </c>
       <c r="B233" t="n">
-        <v>23228.0</v>
+        <v>82700.0</v>
       </c>
       <c r="C233" t="n">
-        <v>50349.0</v>
+        <v>232760.0</v>
       </c>
       <c r="D233" t="n">
-        <v>3225.0</v>
+        <v>0.0</v>
       </c>
       <c r="E233" t="n">
-        <v>19589.0</v>
+        <v>43117.0</v>
       </c>
       <c r="F233" t="n">
-        <v>351762.0</v>
+        <v>950921.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>124020.0</v>
+        <v>228342.0</v>
       </c>
       <c r="B234" t="n">
-        <v>22833.0</v>
+        <v>86116.0</v>
       </c>
       <c r="C234" t="n">
-        <v>49399.0</v>
+        <v>237596.0</v>
       </c>
       <c r="D234" t="n">
-        <v>2961.0</v>
+        <v>0.0</v>
       </c>
       <c r="E234" t="n">
-        <v>19451.0</v>
+        <v>42546.0</v>
       </c>
       <c r="F234" t="n">
-        <v>350210.0</v>
+        <v>978114.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>134763.0</v>
+        <v>237432.0</v>
       </c>
       <c r="B235" t="n">
-        <v>22299.0</v>
+        <v>88728.0</v>
       </c>
       <c r="C235" t="n">
         <v>0.0</v>
       </c>
       <c r="D235" t="n">
-        <v>2746.0</v>
+        <v>0.0</v>
       </c>
       <c r="E235" t="n">
-        <v>18961.0</v>
+        <v>41936.0</v>
       </c>
       <c r="F235" t="n">
-        <v>352359.0</v>
+        <v>1005742.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>133374.0</v>
+        <v>237336.0</v>
       </c>
       <c r="B236" t="n">
-        <v>21496.0</v>
+        <v>90026.0</v>
       </c>
       <c r="C236" t="n">
         <v>0.0</v>
       </c>
       <c r="D236" t="n">
-        <v>2794.0</v>
+        <v>0.0</v>
       </c>
       <c r="E236" t="n">
-        <v>18800.0</v>
+        <v>41675.0</v>
       </c>
       <c r="F236" t="n">
-        <v>356415.0</v>
+        <v>1033101.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>197985.0</v>
+        <v>243334.0</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
@@ -5073,10 +5073,10 @@
         <v>0.0</v>
       </c>
       <c r="D237" t="n">
-        <v>2789.0</v>
+        <v>0.0</v>
       </c>
       <c r="E237" t="n">
-        <v>19132.0</v>
+        <v>41559.0</v>
       </c>
       <c r="F237" t="n">
         <v>0.0</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>198909.0</v>
+        <v>440579.0</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
@@ -5104,107 +5104,107 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>109441.0</v>
+        <v>203579.0</v>
       </c>
       <c r="B239" t="n">
-        <v>18808.0</v>
+        <v>82357.0</v>
       </c>
       <c r="C239" t="n">
         <v>0.0</v>
       </c>
       <c r="D239" t="n">
-        <v>2427.0</v>
+        <v>0.0</v>
       </c>
       <c r="E239" t="n">
-        <v>19066.0</v>
+        <v>43147.0</v>
       </c>
       <c r="F239" t="n">
-        <v>331026.0</v>
+        <v>996716.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>107379.0</v>
+        <v>204805.0</v>
       </c>
       <c r="B240" t="n">
-        <v>22192.0</v>
+        <v>86342.0</v>
       </c>
       <c r="C240" t="n">
         <v>0.0</v>
       </c>
       <c r="D240" t="n">
-        <v>2639.0</v>
+        <v>0.0</v>
       </c>
       <c r="E240" t="n">
-        <v>18963.0</v>
+        <v>42681.0</v>
       </c>
       <c r="F240" t="n">
-        <v>341654.0</v>
+        <v>1014473.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>104295.0</v>
+        <v>201139.0</v>
       </c>
       <c r="B241" t="n">
-        <v>21690.0</v>
+        <v>87959.0</v>
       </c>
       <c r="C241" t="n">
         <v>0.0</v>
       </c>
       <c r="D241" t="n">
-        <v>2405.0</v>
+        <v>0.0</v>
       </c>
       <c r="E241" t="n">
-        <v>18064.0</v>
+        <v>42273.0</v>
       </c>
       <c r="F241" t="n">
-        <v>333863.0</v>
+        <v>1029736.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>103667.0</v>
+        <v>201029.0</v>
       </c>
       <c r="B242" t="n">
-        <v>21001.0</v>
+        <v>88528.0</v>
       </c>
       <c r="C242" t="n">
         <v>0.0</v>
       </c>
       <c r="D242" t="n">
-        <v>2321.0</v>
+        <v>0.0</v>
       </c>
       <c r="E242" t="n">
-        <v>17932.0</v>
+        <v>42392.0</v>
       </c>
       <c r="F242" t="n">
-        <v>323872.0</v>
+        <v>1036635.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>103387.0</v>
+        <v>202879.0</v>
       </c>
       <c r="B243" t="n">
-        <v>19927.0</v>
+        <v>88198.0</v>
       </c>
       <c r="C243" t="n">
         <v>0.0</v>
       </c>
       <c r="D243" t="n">
-        <v>2463.0</v>
+        <v>0.0</v>
       </c>
       <c r="E243" t="n">
-        <v>17728.0</v>
+        <v>41664.0</v>
       </c>
       <c r="F243" t="n">
-        <v>314907.0</v>
+        <v>1044231.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>156175.0</v>
+        <v>203124.0</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
@@ -5213,10 +5213,10 @@
         <v>0.0</v>
       </c>
       <c r="D244" t="n">
-        <v>2454.0</v>
+        <v>0.0</v>
       </c>
       <c r="E244" t="n">
-        <v>17382.0</v>
+        <v>41188.0</v>
       </c>
       <c r="F244" t="n">
         <v>0.0</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>160190.0</v>
+        <v>367767.0</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
@@ -5244,119 +5244,119 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>84651.0</v>
+        <v>168837.0</v>
       </c>
       <c r="B246" t="n">
-        <v>15756.0</v>
+        <v>75955.0</v>
       </c>
       <c r="C246" t="n">
-        <v>24959.0</v>
+        <v>108863.0</v>
       </c>
       <c r="D246" t="n">
-        <v>2302.0</v>
+        <v>0.0</v>
       </c>
       <c r="E246" t="n">
-        <v>17180.0</v>
+        <v>41905.0</v>
       </c>
       <c r="F246" t="n">
-        <v>271596.0</v>
+        <v>941688.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>87916.0</v>
+        <v>172339.0</v>
       </c>
       <c r="B247" t="n">
-        <v>18311.0</v>
+        <v>78366.0</v>
       </c>
       <c r="C247" t="n">
-        <v>29947.0</v>
+        <v>119601.0</v>
       </c>
       <c r="D247" t="n">
-        <v>2274.0</v>
+        <v>0.0</v>
       </c>
       <c r="E247" t="n">
-        <v>16851.0</v>
+        <v>41085.0</v>
       </c>
       <c r="F247" t="n">
-        <v>274524.0</v>
+        <v>944220.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>88690.0</v>
+        <v>176453.0</v>
       </c>
       <c r="B248" t="n">
-        <v>16944.0</v>
+        <v>78786.0</v>
       </c>
       <c r="C248" t="n">
-        <v>30132.0</v>
+        <v>132329.0</v>
       </c>
       <c r="D248" t="n">
-        <v>2253.0</v>
+        <v>0.0</v>
       </c>
       <c r="E248" t="n">
-        <v>16241.0</v>
+        <v>40291.0</v>
       </c>
       <c r="F248" t="n">
-        <v>266324.0</v>
+        <v>942148.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>90055.0</v>
+        <v>181679.0</v>
       </c>
       <c r="B249" t="n">
-        <v>16694.0</v>
+        <v>77982.0</v>
       </c>
       <c r="C249" t="n">
-        <v>31540.0</v>
+        <v>145782.0</v>
       </c>
       <c r="D249" t="n">
-        <v>2229.0</v>
+        <v>0.0</v>
       </c>
       <c r="E249" t="n">
-        <v>15500.0</v>
+        <v>39035.0</v>
       </c>
       <c r="F249" t="n">
-        <v>256655.0</v>
+        <v>942398.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>92152.0</v>
+        <v>170288.0</v>
       </c>
       <c r="B250" t="n">
-        <v>16016.0</v>
+        <v>77320.0</v>
       </c>
       <c r="C250" t="n">
-        <v>32322.0</v>
+        <v>159024.0</v>
       </c>
       <c r="D250" t="n">
-        <v>2105.0</v>
+        <v>0.0</v>
       </c>
       <c r="E250" t="n">
-        <v>14785.0</v>
+        <v>38458.0</v>
       </c>
       <c r="F250" t="n">
-        <v>252595.0</v>
+        <v>942562.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>139213.0</v>
+        <v>196365.0</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>29597.0</v>
+        <v>145565.0</v>
       </c>
       <c r="D251" t="n">
-        <v>2173.0</v>
+        <v>0.0</v>
       </c>
       <c r="E251" t="n">
-        <v>14921.0</v>
+        <v>37683.0</v>
       </c>
       <c r="F251" t="n">
         <v>0.0</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>158544.0</v>
+        <v>368978.0</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -5384,119 +5384,119 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>84674.0</v>
+        <v>174193.0</v>
       </c>
       <c r="B253" t="n">
-        <v>14194.0</v>
+        <v>67324.0</v>
       </c>
       <c r="C253" t="n">
-        <v>30675.0</v>
+        <v>174870.0</v>
       </c>
       <c r="D253" t="n">
-        <v>1978.0</v>
+        <v>0.0</v>
       </c>
       <c r="E253" t="n">
-        <v>14889.0</v>
+        <v>37874.0</v>
       </c>
       <c r="F253" t="n">
-        <v>235611.0</v>
+        <v>855279.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>87511.0</v>
+        <v>170946.0</v>
       </c>
       <c r="B254" t="n">
-        <v>17462.0</v>
+        <v>70834.0</v>
       </c>
       <c r="C254" t="n">
-        <v>34466.0</v>
+        <v>190202.0</v>
       </c>
       <c r="D254" t="n">
-        <v>2103.0</v>
+        <v>0.0</v>
       </c>
       <c r="E254" t="n">
-        <v>14607.0</v>
+        <v>37704.0</v>
       </c>
       <c r="F254" t="n">
-        <v>246351.0</v>
+        <v>861847.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>88406.0</v>
+        <v>189181.0</v>
       </c>
       <c r="B255" t="n">
-        <v>16406.0</v>
+        <v>71774.0</v>
       </c>
       <c r="C255" t="n">
-        <v>34946.0</v>
+        <v>201909.0</v>
       </c>
       <c r="D255" t="n">
-        <v>1973.0</v>
+        <v>0.0</v>
       </c>
       <c r="E255" t="n">
-        <v>14298.0</v>
+        <v>37564.0</v>
       </c>
       <c r="F255" t="n">
-        <v>245043.0</v>
+        <v>868487.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>90437.0</v>
+        <v>199311.0</v>
       </c>
       <c r="B256" t="n">
-        <v>16594.0</v>
+        <v>73467.0</v>
       </c>
       <c r="C256" t="n">
-        <v>35267.0</v>
+        <v>210473.0</v>
       </c>
       <c r="D256" t="n">
-        <v>1941.0</v>
+        <v>0.0</v>
       </c>
       <c r="E256" t="n">
-        <v>13893.0</v>
+        <v>37022.0</v>
       </c>
       <c r="F256" t="n">
-        <v>246632.0</v>
+        <v>878012.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>93985.0</v>
+        <v>208119.0</v>
       </c>
       <c r="B257" t="n">
-        <v>16354.0</v>
+        <v>74039.0</v>
       </c>
       <c r="C257" t="n">
-        <v>35606.0</v>
+        <v>217879.0</v>
       </c>
       <c r="D257" t="n">
-        <v>1901.0</v>
+        <v>0.0</v>
       </c>
       <c r="E257" t="n">
-        <v>13538.0</v>
+        <v>36898.0</v>
       </c>
       <c r="F257" t="n">
-        <v>248353.0</v>
+        <v>891054.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>142033.0</v>
+        <v>216774.0</v>
       </c>
       <c r="B258" t="n">
         <v>0.0</v>
       </c>
       <c r="C258" t="n">
-        <v>33162.0</v>
+        <v>193044.0</v>
       </c>
       <c r="D258" t="n">
-        <v>1943.0</v>
+        <v>0.0</v>
       </c>
       <c r="E258" t="n">
-        <v>13502.0</v>
+        <v>37218.0</v>
       </c>
       <c r="F258" t="n">
         <v>0.0</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>161873.0</v>
+        <v>410974.0</v>
       </c>
       <c r="B259" t="n">
         <v>0.0</v>
@@ -5524,119 +5524,119 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>87230.0</v>
+        <v>195594.0</v>
       </c>
       <c r="B260" t="n">
-        <v>14288.0</v>
+        <v>67354.0</v>
       </c>
       <c r="C260" t="n">
-        <v>32746.0</v>
+        <v>219680.0</v>
       </c>
       <c r="D260" t="n">
-        <v>1856.0</v>
+        <v>0.0</v>
       </c>
       <c r="E260" t="n">
-        <v>14389.0</v>
+        <v>38811.0</v>
       </c>
       <c r="F260" t="n">
-        <v>241518.0</v>
+        <v>851533.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>90604.0</v>
+        <v>203062.0</v>
       </c>
       <c r="B261" t="n">
-        <v>17603.0</v>
+        <v>71382.0</v>
       </c>
       <c r="C261" t="n">
-        <v>37368.0</v>
+        <v>228343.0</v>
       </c>
       <c r="D261" t="n">
-        <v>1959.0</v>
+        <v>0.0</v>
       </c>
       <c r="E261" t="n">
-        <v>14259.0</v>
+        <v>38315.0</v>
       </c>
       <c r="F261" t="n">
-        <v>256259.0</v>
+        <v>870394.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>91994.0</v>
+        <v>207715.0</v>
       </c>
       <c r="B262" t="n">
-        <v>16652.0</v>
+        <v>73855.0</v>
       </c>
       <c r="C262" t="n">
-        <v>37200.0</v>
+        <v>236076.0</v>
       </c>
       <c r="D262" t="n">
-        <v>1995.0</v>
+        <v>0.0</v>
       </c>
       <c r="E262" t="n">
-        <v>13497.0</v>
+        <v>38024.0</v>
       </c>
       <c r="F262" t="n">
-        <v>252114.0</v>
+        <v>888010.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>93126.0</v>
+        <v>218367.0</v>
       </c>
       <c r="B263" t="n">
-        <v>16219.0</v>
+        <v>76001.0</v>
       </c>
       <c r="C263" t="n">
-        <v>37756.0</v>
+        <v>241962.0</v>
       </c>
       <c r="D263" t="n">
-        <v>1888.0</v>
+        <v>0.0</v>
       </c>
       <c r="E263" t="n">
-        <v>13631.0</v>
+        <v>37438.0</v>
       </c>
       <c r="F263" t="n">
-        <v>254962.0</v>
+        <v>903676.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>96802.0</v>
+        <v>224895.0</v>
       </c>
       <c r="B264" t="n">
-        <v>15632.0</v>
+        <v>77853.0</v>
       </c>
       <c r="C264" t="n">
-        <v>37987.0</v>
+        <v>246962.0</v>
       </c>
       <c r="D264" t="n">
-        <v>2036.0</v>
+        <v>0.0</v>
       </c>
       <c r="E264" t="n">
-        <v>13611.0</v>
+        <v>37155.0</v>
       </c>
       <c r="F264" t="n">
-        <v>256491.0</v>
+        <v>920959.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>146732.0</v>
+        <v>236700.0</v>
       </c>
       <c r="B265" t="n">
         <v>0.0</v>
       </c>
       <c r="C265" t="n">
-        <v>34634.0</v>
+        <v>215994.0</v>
       </c>
       <c r="D265" t="n">
-        <v>2074.0</v>
+        <v>0.0</v>
       </c>
       <c r="E265" t="n">
-        <v>13819.0</v>
+        <v>37410.0</v>
       </c>
       <c r="F265" t="n">
         <v>0.0</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>167332.0</v>
+        <v>443829.0</v>
       </c>
       <c r="B266" t="n">
         <v>0.0</v>
@@ -5664,119 +5664,119 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>89517.0</v>
+        <v>210535.0</v>
       </c>
       <c r="B267" t="n">
-        <v>14129.0</v>
+        <v>72255.0</v>
       </c>
       <c r="C267" t="n">
-        <v>34358.0</v>
+        <v>242991.0</v>
       </c>
       <c r="D267" t="n">
-        <v>2054.0</v>
+        <v>0.0</v>
       </c>
       <c r="E267" t="n">
-        <v>14271.0</v>
+        <v>39172.0</v>
       </c>
       <c r="F267" t="n">
-        <v>248177.0</v>
+        <v>894273.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>92297.0</v>
+        <v>219258.0</v>
       </c>
       <c r="B268" t="n">
-        <v>16416.0</v>
+        <v>76297.0</v>
       </c>
       <c r="C268" t="n">
-        <v>38226.0</v>
+        <v>254320.0</v>
       </c>
       <c r="D268" t="n">
-        <v>2184.0</v>
+        <v>0.0</v>
       </c>
       <c r="E268" t="n">
-        <v>13995.0</v>
+        <v>38734.0</v>
       </c>
       <c r="F268" t="n">
-        <v>258816.0</v>
+        <v>911830.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>92842.0</v>
+        <v>190792.0</v>
       </c>
       <c r="B269" t="n">
-        <v>16182.0</v>
+        <v>79435.0</v>
       </c>
       <c r="C269" t="n">
-        <v>37150.0</v>
+        <v>262631.0</v>
       </c>
       <c r="D269" t="n">
-        <v>2128.0</v>
+        <v>0.0</v>
       </c>
       <c r="E269" t="n">
-        <v>13796.0</v>
+        <v>38854.0</v>
       </c>
       <c r="F269" t="n">
-        <v>257263.0</v>
+        <v>931405.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>95691.0</v>
+        <v>237018.0</v>
       </c>
       <c r="B270" t="n">
-        <v>16431.0</v>
+        <v>82589.0</v>
       </c>
       <c r="C270" t="n">
-        <v>38147.0</v>
+        <v>268206.0</v>
       </c>
       <c r="D270" t="n">
-        <v>2109.0</v>
+        <v>0.0</v>
       </c>
       <c r="E270" t="n">
-        <v>13542.0</v>
+        <v>38517.0</v>
       </c>
       <c r="F270" t="n">
-        <v>258120.0</v>
+        <v>951142.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>98107.0</v>
+        <v>240602.0</v>
       </c>
       <c r="B271" t="n">
-        <v>15987.0</v>
+        <v>83946.0</v>
       </c>
       <c r="C271" t="n">
-        <v>38280.0</v>
+        <v>274219.0</v>
       </c>
       <c r="D271" t="n">
-        <v>1992.0</v>
+        <v>0.0</v>
       </c>
       <c r="E271" t="n">
-        <v>13630.0</v>
+        <v>38760.0</v>
       </c>
       <c r="F271" t="n">
-        <v>261178.0</v>
+        <v>977996.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>146926.0</v>
+        <v>249633.0</v>
       </c>
       <c r="B272" t="n">
         <v>0.0</v>
       </c>
       <c r="C272" t="n">
-        <v>34518.0</v>
+        <v>240282.0</v>
       </c>
       <c r="D272" t="n">
-        <v>1942.0</v>
+        <v>0.0</v>
       </c>
       <c r="E272" t="n">
-        <v>13592.0</v>
+        <v>38676.0</v>
       </c>
       <c r="F272" t="n">
         <v>0.0</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>167416.0</v>
+        <v>470401.0</v>
       </c>
       <c r="B273" t="n">
         <v>0.0</v>
@@ -5804,27 +5804,27 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>89631.0</v>
+        <v>225483.0</v>
       </c>
       <c r="B274" t="n">
-        <v>13945.0</v>
+        <v>79377.0</v>
       </c>
       <c r="C274" t="n">
-        <v>34405.0</v>
+        <v>269442.0</v>
       </c>
       <c r="D274" t="n">
-        <v>1693.0</v>
+        <v>0.0</v>
       </c>
       <c r="E274" t="n">
-        <v>13909.0</v>
+        <v>40733.0</v>
       </c>
       <c r="F274" t="n">
-        <v>250154.0</v>
+        <v>950907.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>159415.0</v>
+        <v>452061.0</v>
       </c>
       <c r="B275" t="n">
         <v>0.0</v>
@@ -5844,79 +5844,79 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>81705.0</v>
+        <v>211536.0</v>
       </c>
       <c r="B276" t="n">
-        <v>14352.0</v>
+        <v>82609.0</v>
       </c>
       <c r="C276" t="n">
-        <v>32137.0</v>
+        <v>266246.0</v>
       </c>
       <c r="D276" t="n">
-        <v>1797.0</v>
+        <v>0.0</v>
       </c>
       <c r="E276" t="n">
-        <v>13216.0</v>
+        <v>41879.0</v>
       </c>
       <c r="F276" t="n">
-        <v>240190.0</v>
+        <v>958969.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>84054.0</v>
+        <v>217781.0</v>
       </c>
       <c r="B277" t="n">
-        <v>17132.0</v>
+        <v>87604.0</v>
       </c>
       <c r="C277" t="n">
-        <v>37214.0</v>
+        <v>277313.0</v>
       </c>
       <c r="D277" t="n">
-        <v>1798.0</v>
+        <v>0.0</v>
       </c>
       <c r="E277" t="n">
-        <v>13472.0</v>
+        <v>41374.0</v>
       </c>
       <c r="F277" t="n">
-        <v>243825.0</v>
+        <v>973338.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>84130.0</v>
+        <v>225671.0</v>
       </c>
       <c r="B278" t="n">
-        <v>15480.0</v>
+        <v>90386.0</v>
       </c>
       <c r="C278" t="n">
-        <v>36387.0</v>
+        <v>286490.0</v>
       </c>
       <c r="D278" t="n">
-        <v>1774.0</v>
+        <v>0.0</v>
       </c>
       <c r="E278" t="n">
-        <v>13303.0</v>
+        <v>40542.0</v>
       </c>
       <c r="F278" t="n">
-        <v>237405.0</v>
+        <v>986499.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>127106.0</v>
+        <v>234684.0</v>
       </c>
       <c r="B279" t="n">
         <v>0.0</v>
       </c>
       <c r="C279" t="n">
-        <v>33205.0</v>
+        <v>250291.0</v>
       </c>
       <c r="D279" t="n">
-        <v>1594.0</v>
+        <v>0.0</v>
       </c>
       <c r="E279" t="n">
-        <v>13307.0</v>
+        <v>39132.0</v>
       </c>
       <c r="F279" t="n">
         <v>0.0</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>144291.0</v>
+        <v>397145.0</v>
       </c>
       <c r="B280" t="n">
         <v>0.0</v>
@@ -5944,47 +5944,47 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>77683.0</v>
+        <v>204693.0</v>
       </c>
       <c r="B281" t="n">
-        <v>13307.0</v>
+        <v>81660.0</v>
       </c>
       <c r="C281" t="n">
-        <v>30887.0</v>
+        <v>270653.0</v>
       </c>
       <c r="D281" t="n">
-        <v>1599.0</v>
+        <v>0.0</v>
       </c>
       <c r="E281" t="n">
-        <v>12996.0</v>
+        <v>39654.0</v>
       </c>
       <c r="F281" t="n">
-        <v>218297.0</v>
+        <v>908546.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>81502.0</v>
+        <v>217667.0</v>
       </c>
       <c r="B282" t="n">
-        <v>15891.0</v>
+        <v>87425.0</v>
       </c>
       <c r="C282" t="n">
-        <v>34939.0</v>
+        <v>279971.0</v>
       </c>
       <c r="D282" t="n">
-        <v>1764.0</v>
+        <v>0.0</v>
       </c>
       <c r="E282" t="n">
-        <v>12703.0</v>
+        <v>39039.0</v>
       </c>
       <c r="F282" t="n">
-        <v>226352.0</v>
+        <v>917773.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>141155.0</v>
+        <v>443260.0</v>
       </c>
       <c r="B283" t="n">
         <v>0.0</v>
@@ -6004,59 +6004,59 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>74140.0</v>
+        <v>211289.0</v>
       </c>
       <c r="B284" t="n">
-        <v>14116.0</v>
+        <v>88879.0</v>
       </c>
       <c r="C284" t="n">
-        <v>29582.0</v>
+        <v>273279.0</v>
       </c>
       <c r="D284" t="n">
-        <v>1589.0</v>
+        <v>0.0</v>
       </c>
       <c r="E284" t="n">
-        <v>12581.0</v>
+        <v>39813.0</v>
       </c>
       <c r="F284" t="n">
-        <v>211011.0</v>
+        <v>935130.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>77380.0</v>
+        <v>225493.0</v>
       </c>
       <c r="B285" t="n">
-        <v>16486.0</v>
+        <v>93663.0</v>
       </c>
       <c r="C285" t="n">
-        <v>33357.0</v>
+        <v>285378.0</v>
       </c>
       <c r="D285" t="n">
-        <v>1579.0</v>
+        <v>0.0</v>
       </c>
       <c r="E285" t="n">
-        <v>12178.0</v>
+        <v>39462.0</v>
       </c>
       <c r="F285" t="n">
-        <v>217940.0</v>
+        <v>960938.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>113833.0</v>
+        <v>234700.0</v>
       </c>
       <c r="B286" t="n">
         <v>0.0</v>
       </c>
       <c r="C286" t="n">
-        <v>29496.0</v>
+        <v>253129.0</v>
       </c>
       <c r="D286" t="n">
-        <v>1616.0</v>
+        <v>0.0</v>
       </c>
       <c r="E286" t="n">
-        <v>11922.0</v>
+        <v>38730.0</v>
       </c>
       <c r="F286" t="n">
         <v>0.0</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>128422.0</v>
+        <v>447751.0</v>
       </c>
       <c r="B287" t="n">
         <v>0.0</v>
@@ -6084,119 +6084,119 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>68585.0</v>
+        <v>212789.0</v>
       </c>
       <c r="B288" t="n">
-        <v>12887.0</v>
+        <v>86151.0</v>
       </c>
       <c r="C288" t="n">
-        <v>27840.0</v>
+        <v>279817.0</v>
       </c>
       <c r="D288" t="n">
-        <v>1401.0</v>
+        <v>0.0</v>
       </c>
       <c r="E288" t="n">
-        <v>11949.0</v>
+        <v>39816.0</v>
       </c>
       <c r="F288" t="n">
-        <v>198476.0</v>
+        <v>916444.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>70964.0</v>
+        <v>223400.0</v>
       </c>
       <c r="B289" t="n">
-        <v>14694.0</v>
+        <v>92416.0</v>
       </c>
       <c r="C289" t="n">
-        <v>31506.0</v>
+        <v>291651.0</v>
       </c>
       <c r="D289" t="n">
-        <v>1306.0</v>
+        <v>0.0</v>
       </c>
       <c r="E289" t="n">
-        <v>11694.0</v>
+        <v>39278.0</v>
       </c>
       <c r="F289" t="n">
-        <v>203467.0</v>
+        <v>934646.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>73049.0</v>
+        <v>231512.0</v>
       </c>
       <c r="B290" t="n">
-        <v>14448.0</v>
+        <v>96486.0</v>
       </c>
       <c r="C290" t="n">
-        <v>31072.0</v>
+        <v>299828.0</v>
       </c>
       <c r="D290" t="n">
-        <v>1130.0</v>
+        <v>0.0</v>
       </c>
       <c r="E290" t="n">
-        <v>11302.0</v>
+        <v>39185.0</v>
       </c>
       <c r="F290" t="n">
-        <v>200195.0</v>
+        <v>953282.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>75375.0</v>
+        <v>243261.0</v>
       </c>
       <c r="B291" t="n">
-        <v>14265.0</v>
+        <v>97829.0</v>
       </c>
       <c r="C291" t="n">
-        <v>31408.0</v>
+        <v>303604.0</v>
       </c>
       <c r="D291" t="n">
-        <v>1291.0</v>
+        <v>0.0</v>
       </c>
       <c r="E291" t="n">
-        <v>11219.0</v>
+        <v>38420.0</v>
       </c>
       <c r="F291" t="n">
-        <v>200726.0</v>
+        <v>970114.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>77989.0</v>
+        <v>252294.0</v>
       </c>
       <c r="B292" t="n">
-        <v>14466.0</v>
+        <v>98994.0</v>
       </c>
       <c r="C292" t="n">
-        <v>32345.0</v>
+        <v>308761.0</v>
       </c>
       <c r="D292" t="n">
-        <v>1313.0</v>
+        <v>0.0</v>
       </c>
       <c r="E292" t="n">
-        <v>11115.0</v>
+        <v>37930.0</v>
       </c>
       <c r="F292" t="n">
-        <v>200282.0</v>
+        <v>990052.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>117892.0</v>
+        <v>261719.0</v>
       </c>
       <c r="B293" t="n">
         <v>0.0</v>
       </c>
       <c r="C293" t="n">
-        <v>28241.0</v>
+        <v>266681.0</v>
       </c>
       <c r="D293" t="n">
-        <v>1428.0</v>
+        <v>0.0</v>
       </c>
       <c r="E293" t="n">
-        <v>10868.0</v>
+        <v>37569.0</v>
       </c>
       <c r="F293" t="n">
         <v>0.0</v>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>135181.0</v>
+        <v>473732.0</v>
       </c>
       <c r="B294" t="n">
         <v>0.0</v>
@@ -6224,119 +6224,119 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>73464.0</v>
+        <v>242291.0</v>
       </c>
       <c r="B295" t="n">
-        <v>12636.0</v>
+        <v>91447.0</v>
       </c>
       <c r="C295" t="n">
-        <v>27934.0</v>
+        <v>295700.0</v>
       </c>
       <c r="D295" t="n">
-        <v>1361.0</v>
+        <v>0.0</v>
       </c>
       <c r="E295" t="n">
-        <v>11416.0</v>
+        <v>40118.0</v>
       </c>
       <c r="F295" t="n">
-        <v>197523.0</v>
+        <v>960428.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>75281.0</v>
+        <v>251340.0</v>
       </c>
       <c r="B296" t="n">
-        <v>15031.0</v>
+        <v>97607.0</v>
       </c>
       <c r="C296" t="n">
-        <v>31423.0</v>
+        <v>307135.0</v>
       </c>
       <c r="D296" t="n">
-        <v>1414.0</v>
+        <v>0.0</v>
       </c>
       <c r="E296" t="n">
-        <v>11314.0</v>
+        <v>40444.0</v>
       </c>
       <c r="F296" t="n">
-        <v>207340.0</v>
+        <v>990845.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>59458.0</v>
+        <v>263563.0</v>
       </c>
       <c r="B297" t="n">
-        <v>14192.0</v>
+        <v>101602.0</v>
       </c>
       <c r="C297" t="n">
-        <v>31172.0</v>
+        <v>313251.0</v>
       </c>
       <c r="D297" t="n">
-        <v>1513.0</v>
+        <v>0.0</v>
       </c>
       <c r="E297" t="n">
-        <v>11042.0</v>
+        <v>40299.0</v>
       </c>
       <c r="F297" t="n">
-        <v>206189.0</v>
+        <v>1020827.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>77849.0</v>
+        <v>275535.0</v>
       </c>
       <c r="B298" t="n">
-        <v>14110.0</v>
+        <v>104881.0</v>
       </c>
       <c r="C298" t="n">
-        <v>32784.0</v>
+        <v>317732.0</v>
       </c>
       <c r="D298" t="n">
-        <v>1606.0</v>
+        <v>0.0</v>
       </c>
       <c r="E298" t="n">
-        <v>11234.0</v>
+        <v>39752.0</v>
       </c>
       <c r="F298" t="n">
-        <v>207706.0</v>
+        <v>1047298.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>80083.0</v>
+        <v>237801.0</v>
       </c>
       <c r="B299" t="n">
-        <v>13831.0</v>
+        <v>108136.0</v>
       </c>
       <c r="C299" t="n">
-        <v>32494.0</v>
+        <v>322629.0</v>
       </c>
       <c r="D299" t="n">
-        <v>1649.0</v>
+        <v>0.0</v>
       </c>
       <c r="E299" t="n">
-        <v>11305.0</v>
+        <v>39905.0</v>
       </c>
       <c r="F299" t="n">
-        <v>210609.0</v>
+        <v>1074513.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>121010.0</v>
+        <v>288663.0</v>
       </c>
       <c r="B300" t="n">
         <v>0.0</v>
       </c>
       <c r="C300" t="n">
-        <v>29788.0</v>
+        <v>276214.0</v>
       </c>
       <c r="D300" t="n">
-        <v>1515.0</v>
+        <v>0.0</v>
       </c>
       <c r="E300" t="n">
-        <v>11426.0</v>
+        <v>40314.0</v>
       </c>
       <c r="F300" t="n">
         <v>0.0</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>138701.0</v>
+        <v>555948.0</v>
       </c>
       <c r="B301" t="n">
         <v>0.0</v>
@@ -6364,90 +6364,90 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>75151.0</v>
+        <v>262941.0</v>
       </c>
       <c r="B302" t="n">
-        <v>12191.0</v>
+        <v>99520.0</v>
       </c>
       <c r="C302" t="n">
-        <v>28765.0</v>
+        <v>306804.0</v>
       </c>
       <c r="D302" t="n">
-        <v>1329.0</v>
+        <v>0.0</v>
       </c>
       <c r="E302" t="n">
-        <v>11618.0</v>
+        <v>43875.0</v>
       </c>
       <c r="F302" t="n">
-        <v>205804.0</v>
+        <v>1052732.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>78233.0</v>
+        <v>273594.0</v>
       </c>
       <c r="B303" t="n">
-        <v>13951.0</v>
+        <v>106062.0</v>
       </c>
       <c r="C303" t="n">
-        <v>32634.0</v>
+        <v>315903.0</v>
       </c>
       <c r="D303" t="n">
-        <v>1385.0</v>
+        <v>0.0</v>
       </c>
       <c r="E303" t="n">
-        <v>11602.0</v>
+        <v>44212.0</v>
       </c>
       <c r="F303" t="n">
-        <v>215411.0</v>
+        <v>1079796.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>79483.0</v>
+        <v>275363.0</v>
       </c>
       <c r="B304" t="n">
-        <v>14125.0</v>
+        <v>109981.0</v>
       </c>
       <c r="C304" t="n">
-        <v>32104.0</v>
+        <v>324610.0</v>
       </c>
       <c r="D304" t="n">
-        <v>1345.0</v>
+        <v>0.0</v>
       </c>
       <c r="E304" t="n">
-        <v>11510.0</v>
+        <v>43874.0</v>
       </c>
       <c r="F304" t="n">
-        <v>214830.0</v>
+        <v>1103681.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>81089.0</v>
+        <v>287550.0</v>
       </c>
       <c r="B305" t="n">
-        <v>14457.0</v>
+        <v>113294.0</v>
       </c>
       <c r="C305" t="n">
-        <v>32770.0</v>
+        <v>329897.0</v>
       </c>
       <c r="D305" t="n">
-        <v>1379.0</v>
+        <v>0.0</v>
       </c>
       <c r="E305" t="n">
-        <v>11499.0</v>
+        <v>43783.0</v>
       </c>
       <c r="F305" t="n">
-        <v>213844.0</v>
+        <v>1130407.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>92268.0</v>
+        <v>256145.0</v>
       </c>
       <c r="B306" t="n">
-        <v>14099.0</v>
+        <v>115730.0</v>
       </c>
       <c r="C306" t="n">
         <v>0.0</v>
@@ -6459,12 +6459,12 @@
         <v>0.0</v>
       </c>
       <c r="F306" t="n">
-        <v>217595.0</v>
+        <v>1152196.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>135113.0</v>
+        <v>302856.0</v>
       </c>
       <c r="B307" t="n">
         <v>0.0</v>
@@ -6484,7 +6484,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>133781.0</v>
+        <v>550776.0</v>
       </c>
       <c r="B308" t="n">
         <v>0.0</v>
@@ -6504,10 +6504,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>77475.0</v>
+        <v>259551.0</v>
       </c>
       <c r="B309" t="n">
-        <v>12235.0</v>
+        <v>103775.0</v>
       </c>
       <c r="C309" t="n">
         <v>0.0</v>
@@ -6519,15 +6519,15 @@
         <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>211248.0</v>
+        <v>1113404.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>75735.0</v>
+        <v>258219.0</v>
       </c>
       <c r="B310" t="n">
-        <v>14458.0</v>
+        <v>110415.0</v>
       </c>
       <c r="C310" t="n">
         <v>0.0</v>
@@ -6539,15 +6539,15 @@
         <v>0.0</v>
       </c>
       <c r="F310" t="n">
-        <v>216388.0</v>
+        <v>1133715.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>73268.0</v>
+        <v>247724.0</v>
       </c>
       <c r="B311" t="n">
-        <v>13844.0</v>
+        <v>114051.0</v>
       </c>
       <c r="C311" t="n">
         <v>0.0</v>
@@ -6559,15 +6559,15 @@
         <v>0.0</v>
       </c>
       <c r="F311" t="n">
-        <v>213353.0</v>
+        <v>1152084.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>71321.0</v>
+        <v>252829.0</v>
       </c>
       <c r="B312" t="n">
-        <v>13923.0</v>
+        <v>117057.0</v>
       </c>
       <c r="C312" t="n">
         <v>0.0</v>
@@ -6579,15 +6579,15 @@
         <v>0.0</v>
       </c>
       <c r="F312" t="n">
-        <v>205983.0</v>
+        <v>1169575.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>70819.0</v>
+        <v>253592.0</v>
       </c>
       <c r="B313" t="n">
-        <v>13184.0</v>
+        <v>118958.0</v>
       </c>
       <c r="C313" t="n">
         <v>0.0</v>
@@ -6599,12 +6599,12 @@
         <v>0.0</v>
       </c>
       <c r="F313" t="n">
-        <v>201838.0</v>
+        <v>1184123.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>106467.0</v>
+        <v>250666.0</v>
       </c>
       <c r="B314" t="n">
         <v>0.0</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>104285.0</v>
+        <v>444178.0</v>
       </c>
       <c r="B315" t="n">
         <v>0.0</v>
@@ -6644,27 +6644,27 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>58519.0</v>
+        <v>208299.0</v>
       </c>
       <c r="B316" t="n">
-        <v>10693.0</v>
+        <v>100434.0</v>
       </c>
       <c r="C316" t="n">
         <v>0.0</v>
       </c>
       <c r="D316" t="n">
-        <v>1281.0</v>
+        <v>0.0</v>
       </c>
       <c r="E316" t="n">
-        <v>9885.0</v>
+        <v>40111.0</v>
       </c>
       <c r="F316" t="n">
-        <v>169575.0</v>
+        <v>1068252.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>96911.0</v>
+        <v>369817.0</v>
       </c>
       <c r="B317" t="n">
         <v>0.0</v>
@@ -6684,10 +6684,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>54202.0</v>
+        <v>185640.0</v>
       </c>
       <c r="B318" t="n">
-        <v>10288.0</v>
+        <v>99352.0</v>
       </c>
       <c r="C318" t="n">
         <v>0.0</v>
@@ -6699,15 +6699,15 @@
         <v>0.0</v>
       </c>
       <c r="F318" t="n">
-        <v>153508.0</v>
+        <v>1027629.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>53007.0</v>
+        <v>186211.0</v>
       </c>
       <c r="B319" t="n">
-        <v>11781.0</v>
+        <v>101453.0</v>
       </c>
       <c r="C319" t="n">
         <v>0.0</v>
@@ -6719,32 +6719,32 @@
         <v>0.0</v>
       </c>
       <c r="F319" t="n">
-        <v>151811.0</v>
+        <v>1032086.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>49678.0</v>
+        <v>188503.0</v>
       </c>
       <c r="B320" t="n">
-        <v>11008.0</v>
+        <v>103145.0</v>
       </c>
       <c r="C320" t="n">
         <v>0.0</v>
       </c>
       <c r="D320" t="n">
-        <v>1190.0</v>
+        <v>0.0</v>
       </c>
       <c r="E320" t="n">
-        <v>9759.0</v>
+        <v>36816.0</v>
       </c>
       <c r="F320" t="n">
-        <v>143141.0</v>
+        <v>1028784.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>77946.0</v>
+        <v>188899.0</v>
       </c>
       <c r="B321" t="n">
         <v>0.0</v>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>76506.0</v>
+        <v>339341.0</v>
       </c>
       <c r="B322" t="n">
         <v>0.0</v>
@@ -6784,10 +6784,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>44728.0</v>
+        <v>157363.0</v>
       </c>
       <c r="B323" t="n">
-        <v>8694.0</v>
+        <v>84762.0</v>
       </c>
       <c r="C323" t="n">
         <v>0.0</v>
@@ -6799,35 +6799,35 @@
         <v>0.0</v>
       </c>
       <c r="F323" t="n">
-        <v>120646.0</v>
+        <v>883684.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>44219.0</v>
+        <v>159117.0</v>
       </c>
       <c r="B324" t="n">
-        <v>10374.0</v>
+        <v>87858.0</v>
       </c>
       <c r="C324" t="n">
         <v>0.0</v>
       </c>
       <c r="D324" t="n">
-        <v>1193.0</v>
+        <v>0.0</v>
       </c>
       <c r="E324" t="n">
-        <v>8899.0</v>
+        <v>35688.0</v>
       </c>
       <c r="F324" t="n">
-        <v>124133.0</v>
+        <v>870590.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>45935.0</v>
+        <v>159438.0</v>
       </c>
       <c r="B325" t="n">
-        <v>9958.0</v>
+        <v>87654.0</v>
       </c>
       <c r="C325" t="n">
         <v>0.0</v>
@@ -6839,15 +6839,15 @@
         <v>0.0</v>
       </c>
       <c r="F325" t="n">
-        <v>121334.0</v>
+        <v>860240.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>46064.0</v>
+        <v>160634.0</v>
       </c>
       <c r="B326" t="n">
-        <v>9611.0</v>
+        <v>86917.0</v>
       </c>
       <c r="C326" t="n">
         <v>0.0</v>
@@ -6859,15 +6859,15 @@
         <v>0.0</v>
       </c>
       <c r="F326" t="n">
-        <v>118606.0</v>
+        <v>849191.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>46452.0</v>
+        <v>164192.0</v>
       </c>
       <c r="B327" t="n">
-        <v>9209.0</v>
+        <v>85622.0</v>
       </c>
       <c r="C327" t="n">
         <v>0.0</v>
@@ -6879,12 +6879,12 @@
         <v>0.0</v>
       </c>
       <c r="F327" t="n">
-        <v>118144.0</v>
+        <v>845339.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>68158.0</v>
+        <v>165687.0</v>
       </c>
       <c r="B328" t="n">
         <v>0.0</v>
@@ -6893,10 +6893,10 @@
         <v>0.0</v>
       </c>
       <c r="D328" t="n">
-        <v>1042.0</v>
+        <v>0.0</v>
       </c>
       <c r="E328" t="n">
-        <v>8518.0</v>
+        <v>31442.0</v>
       </c>
       <c r="F328" t="n">
         <v>0.0</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>71492.0</v>
+        <v>303299.0</v>
       </c>
       <c r="B329" t="n">
         <v>0.0</v>
@@ -6924,10 +6924,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>42276.0</v>
+        <v>142097.0</v>
       </c>
       <c r="B330" t="n">
-        <v>7435.0</v>
+        <v>69566.0</v>
       </c>
       <c r="C330" t="n">
         <v>0.0</v>
@@ -6939,15 +6939,15 @@
         <v>0.0</v>
       </c>
       <c r="F330" t="n">
-        <v>110427.0</v>
+        <v>748133.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>42659.0</v>
+        <v>143478.0</v>
       </c>
       <c r="B331" t="n">
-        <v>8418.0</v>
+        <v>71691.0</v>
       </c>
       <c r="C331" t="n">
         <v>0.0</v>
@@ -6959,35 +6959,35 @@
         <v>0.0</v>
       </c>
       <c r="F331" t="n">
-        <v>115943.0</v>
+        <v>742796.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>40637.0</v>
+        <v>143741.0</v>
       </c>
       <c r="B332" t="n">
-        <v>7980.0</v>
+        <v>72194.0</v>
       </c>
       <c r="C332" t="n">
         <v>0.0</v>
       </c>
       <c r="D332" t="n">
-        <v>752.0</v>
+        <v>0.0</v>
       </c>
       <c r="E332" t="n">
-        <v>7954.0</v>
+        <v>29545.0</v>
       </c>
       <c r="F332" t="n">
-        <v>115036.0</v>
+        <v>742342.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>42362.0</v>
+        <v>144336.0</v>
       </c>
       <c r="B333" t="n">
-        <v>7804.0</v>
+        <v>72479.0</v>
       </c>
       <c r="C333" t="n">
         <v>0.0</v>
@@ -6999,15 +6999,15 @@
         <v>0.0</v>
       </c>
       <c r="F333" t="n">
-        <v>114753.0</v>
+        <v>742649.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>42777.0</v>
+        <v>147025.0</v>
       </c>
       <c r="B334" t="n">
-        <v>7912.0</v>
+        <v>72328.0</v>
       </c>
       <c r="C334" t="n">
         <v>0.0</v>
@@ -7019,12 +7019,12 @@
         <v>0.0</v>
       </c>
       <c r="F334" t="n">
-        <v>114741.0</v>
+        <v>742814.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>65595.0</v>
+        <v>149811.0</v>
       </c>
       <c r="B335" t="n">
         <v>0.0</v>
@@ -7044,7 +7044,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>66249.0</v>
+        <v>270389.0</v>
       </c>
       <c r="B336" t="n">
         <v>0.0</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>40933.0</v>
+        <v>126808.0</v>
       </c>
       <c r="B337" t="n">
         <v>0.0</v>
@@ -7079,12 +7079,12 @@
         <v>0.0</v>
       </c>
       <c r="F337" t="n">
-        <v>107631.0</v>
+        <v>662572.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>39872.0</v>
+        <v>125379.0</v>
       </c>
       <c r="B338" t="n">
         <v>0.0</v>
@@ -7099,12 +7099,12 @@
         <v>0.0</v>
       </c>
       <c r="F338" t="n">
-        <v>112025.0</v>
+        <v>662576.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>38362.0</v>
+        <v>122706.0</v>
       </c>
       <c r="B339" t="n">
         <v>0.0</v>
@@ -7119,12 +7119,12 @@
         <v>0.0</v>
       </c>
       <c r="F339" t="n">
-        <v>110239.0</v>
+        <v>659447.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>36724.0</v>
+        <v>120152.0</v>
       </c>
       <c r="B340" t="n">
         <v>0.0</v>
@@ -7139,12 +7139,12 @@
         <v>0.0</v>
       </c>
       <c r="F340" t="n">
-        <v>107014.0</v>
+        <v>658753.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>35517.0</v>
+        <v>118290.0</v>
       </c>
       <c r="B341" t="n">
         <v>0.0</v>
@@ -7159,12 +7159,12 @@
         <v>0.0</v>
       </c>
       <c r="F341" t="n">
-        <v>105806.0</v>
+        <v>660308.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>54299.0</v>
+        <v>228967.0</v>
       </c>
       <c r="B342" t="n">
         <v>0.0</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>50698.0</v>
+        <v>206790.0</v>
       </c>
       <c r="B343" t="n">
         <v>0.0</v>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>31272.0</v>
+        <v>93778.0</v>
       </c>
       <c r="B344" t="n">
         <v>0.0</v>
@@ -7219,12 +7219,12 @@
         <v>0.0</v>
       </c>
       <c r="F344" t="n">
-        <v>87193.0</v>
+        <v>583934.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>31027.0</v>
+        <v>92819.0</v>
       </c>
       <c r="B345" t="n">
         <v>0.0</v>
@@ -7239,12 +7239,12 @@
         <v>0.0</v>
       </c>
       <c r="F345" t="n">
-        <v>89476.0</v>
+        <v>579127.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>30623.0</v>
+        <v>90802.0</v>
       </c>
       <c r="B346" t="n">
         <v>0.0</v>
@@ -7259,12 +7259,12 @@
         <v>0.0</v>
       </c>
       <c r="F346" t="n">
-        <v>87867.0</v>
+        <v>571347.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>29883.0</v>
+        <v>89890.0</v>
       </c>
       <c r="B347" t="n">
         <v>0.0</v>
@@ -7279,12 +7279,12 @@
         <v>0.0</v>
       </c>
       <c r="F347" t="n">
-        <v>83799.0</v>
+        <v>567400.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>29282.0</v>
+        <v>89531.0</v>
       </c>
       <c r="B348" t="n">
         <v>0.0</v>
@@ -7299,12 +7299,12 @@
         <v>0.0</v>
       </c>
       <c r="F348" t="n">
-        <v>82033.0</v>
+        <v>562955.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>44426.0</v>
+        <v>174535.0</v>
       </c>
       <c r="B349" t="n">
         <v>0.0</v>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>41581.0</v>
+        <v>159360.0</v>
       </c>
       <c r="B350" t="n">
         <v>0.0</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>25955.0</v>
+        <v>73871.0</v>
       </c>
       <c r="B351" t="n">
         <v>0.0</v>
@@ -7359,12 +7359,12 @@
         <v>0.0</v>
       </c>
       <c r="F351" t="n">
-        <v>70101.0</v>
+        <v>488621.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>26324.0</v>
+        <v>73574.0</v>
       </c>
       <c r="B352" t="n">
         <v>0.0</v>
@@ -7379,12 +7379,12 @@
         <v>0.0</v>
       </c>
       <c r="F352" t="n">
-        <v>73778.0</v>
+        <v>482148.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>26279.0</v>
+        <v>72561.0</v>
       </c>
       <c r="B353" t="n">
         <v>0.0</v>
@@ -7399,12 +7399,12 @@
         <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>72531.0</v>
+        <v>477462.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>25837.0</v>
+        <v>72730.0</v>
       </c>
       <c r="B354" t="n">
         <v>0.0</v>
@@ -7419,12 +7419,12 @@
         <v>0.0</v>
       </c>
       <c r="F354" t="n">
-        <v>69605.0</v>
+        <v>472983.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>25706.0</v>
+        <v>73490.0</v>
       </c>
       <c r="B355" t="n">
         <v>0.0</v>
@@ -7439,12 +7439,12 @@
         <v>0.0</v>
       </c>
       <c r="F355" t="n">
-        <v>68764.0</v>
+        <v>470697.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>39459.0</v>
+        <v>144609.0</v>
       </c>
       <c r="B356" t="n">
         <v>0.0</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>38111.0</v>
+        <v>132806.0</v>
       </c>
       <c r="B357" t="n">
         <v>0.0</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>23951.0</v>
+        <v>61874.0</v>
       </c>
       <c r="B358" t="n">
         <v>0.0</v>
@@ -7499,12 +7499,12 @@
         <v>0.0</v>
       </c>
       <c r="F358" t="n">
-        <v>61895.0</v>
+        <v>407284.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>23960.0</v>
+        <v>61478.0</v>
       </c>
       <c r="B359" t="n">
         <v>0.0</v>
@@ -7519,12 +7519,12 @@
         <v>0.0</v>
       </c>
       <c r="F359" t="n">
-        <v>63810.0</v>
+        <v>401038.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>23841.0</v>
+        <v>61430.0</v>
       </c>
       <c r="B360" t="n">
         <v>0.0</v>
@@ -7539,12 +7539,12 @@
         <v>0.0</v>
       </c>
       <c r="F360" t="n">
-        <v>64141.0</v>
+        <v>396356.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>24198.0</v>
+        <v>61462.0</v>
       </c>
       <c r="B361" t="n">
         <v>0.0</v>
@@ -7559,12 +7559,12 @@
         <v>0.0</v>
       </c>
       <c r="F361" t="n">
-        <v>63241.0</v>
+        <v>393568.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>24178.0</v>
+        <v>61736.0</v>
       </c>
       <c r="B362" t="n">
         <v>0.0</v>
@@ -7579,12 +7579,12 @@
         <v>0.0</v>
       </c>
       <c r="F362" t="n">
-        <v>62774.0</v>
+        <v>389904.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>37527.0</v>
+        <v>121139.0</v>
       </c>
       <c r="B363" t="n">
         <v>0.0</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>36079.0</v>
+        <v>111115.0</v>
       </c>
       <c r="B364" t="n">
         <v>0.0</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>22990.0</v>
+        <v>51869.0</v>
       </c>
       <c r="B365" t="n">
         <v>0.0</v>
@@ -7639,7 +7639,7 @@
         <v>0.0</v>
       </c>
       <c r="F365" t="n">
-        <v>58644.0</v>
+        <v>339557.0</v>
       </c>
     </row>
   </sheetData>
